--- a/Amortization Schedules/Amortization Schedules.xlsx
+++ b/Amortization Schedules/Amortization Schedules.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/jchen2283_wisc_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethrochen/Documents/Excel-Projects/Amortization Schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63FE478F-0669-E343-8E5F-D36024BA9E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72053018-D76C-714D-95CE-57037CF021D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17220" xr2:uid="{F1CEF334-56B4-AA40-97C4-B5372EFA7791}"/>
+    <workbookView xWindow="680" yWindow="860" windowWidth="28040" windowHeight="17220" xr2:uid="{F1CEF334-56B4-AA40-97C4-B5372EFA7791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -114,15 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,15 +144,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
+      <xdr:colOff>272144</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>194388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129592</xdr:rowOff>
+      <xdr:colOff>518367</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>51837</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -168,8 +167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6881327" y="1023776"/>
-          <a:ext cx="2501122" cy="2630714"/>
+          <a:off x="6337042" y="1023776"/>
+          <a:ext cx="3563774" cy="5455816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -212,12 +211,31 @@
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Ending Balances at</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>How much total interest is paid over the term of the loan? What is the outstanding balance at the end of</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 10, 15, 20 years.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10 years, 15 years, 20 years?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -300,6 +318,113 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Question 3: </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>At the end of two years, you have a great uncle who passed away and has left you $20,000. You decide</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>that you are going to take that money and pay it all entirely towards your mortgage in the 24th payment.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>When you manually add that amount to your 24th payment, your spreadsheet will still calculate values</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from there forward based on your normal payments for the rest of the period, but your outstanding</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>balance will decline much faster than originally. How long does it now take to pay off the mortgage</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>versus your original term of 30 years?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -372,10 +497,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,7 +819,7 @@
   <dimension ref="B1:R383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,13 +834,13 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>250000</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>25000</v>
       </c>
     </row>
@@ -741,13 +862,13 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <v>5</v>
       </c>
     </row>
@@ -806,7 +927,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -816,7 +937,7 @@
         <f>$C$4</f>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>C7*(C$2/12)</f>
         <v>1666.6666666666667</v>
       </c>
@@ -831,7 +952,7 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <f>$N$1</f>
         <v>25000</v>
       </c>
@@ -839,7 +960,7 @@
         <f>$N$4</f>
         <v>531.17611778170692</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <f>N7*(N$2/12)</f>
         <v>208.33333333333334</v>
       </c>
@@ -847,13 +968,13 @@
         <f>O7-P7</f>
         <v>322.84278444837355</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <f>N7-Q7</f>
         <v>24677.157215551626</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8">
         <f t="shared" ref="B8:B71" si="0">(B7+1)</f>
         <v>2</v>
       </c>
@@ -865,7 +986,7 @@
         <f t="shared" ref="D8:D71" si="1">$C$4</f>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" ref="E8:E71" si="2">C8*(C$2/12)</f>
         <v>1665.5483682131216</v>
       </c>
@@ -881,29 +1002,29 @@
         <f xml:space="preserve"> M7 +1</f>
         <v>2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f>R7</f>
         <v>24677.157215551626</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O71" si="4">$N$4</f>
+        <f t="shared" ref="O8:O66" si="4">$N$4</f>
         <v>531.17611778170692</v>
       </c>
-      <c r="P8" s="4">
-        <f t="shared" ref="P8:P71" si="5">N8*(N$2/12)</f>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8:P66" si="5">N8*(N$2/12)</f>
         <v>205.64297679626355</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ref="Q8:Q71" si="6">O8-P8</f>
+        <f t="shared" ref="Q8:Q66" si="6">O8-P8</f>
         <v>325.53314098544337</v>
       </c>
-      <c r="R8" s="4">
-        <f t="shared" ref="R8:R71" si="7">N8-Q8</f>
+      <c r="R8" s="3">
+        <f t="shared" ref="R8:R66" si="7">N8-Q8</f>
         <v>24351.624074566182</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -915,7 +1036,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="2"/>
         <v>1664.4226144365527</v>
       </c>
@@ -928,18 +1049,18 @@
         <v>249493.40334522101</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M72" si="10" xml:space="preserve"> M8 +1</f>
+        <f t="shared" ref="M9:M66" si="10" xml:space="preserve"> M8 +1</f>
         <v>3</v>
       </c>
-      <c r="N9" s="4">
-        <f t="shared" ref="N9:N72" si="11">R8</f>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9:N66" si="11">R8</f>
         <v>24351.624074566182</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <f t="shared" si="5"/>
         <v>202.93020062138484</v>
       </c>
@@ -947,13 +1068,13 @@
         <f t="shared" si="6"/>
         <v>328.24591716032205</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <f t="shared" si="7"/>
         <v>24023.378157405859</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -965,7 +1086,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>1663.289355634807</v>
       </c>
@@ -981,7 +1102,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <f t="shared" si="11"/>
         <v>24023.378157405859</v>
       </c>
@@ -989,7 +1110,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <f t="shared" si="5"/>
         <v>200.19481797838216</v>
       </c>
@@ -997,13 +1118,13 @@
         <f t="shared" si="6"/>
         <v>330.98129980332476</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <f t="shared" si="7"/>
         <v>23692.396857602536</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1015,7 +1136,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="2"/>
         <v>1662.1485417743825</v>
       </c>
@@ -1031,7 +1152,7 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <f t="shared" si="11"/>
         <v>23692.396857602536</v>
       </c>
@@ -1039,7 +1160,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <f t="shared" si="5"/>
         <v>197.43664048002114</v>
       </c>
@@ -1047,13 +1168,13 @@
         <f t="shared" si="6"/>
         <v>333.73947730168578</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <f t="shared" si="7"/>
         <v>23358.65738030085</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1065,7 +1186,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="2"/>
         <v>1661.0001224882224</v>
       </c>
@@ -1081,7 +1202,7 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <f t="shared" si="11"/>
         <v>23358.65738030085</v>
       </c>
@@ -1089,7 +1210,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <f t="shared" si="5"/>
         <v>194.65547816917376</v>
       </c>
@@ -1097,13 +1218,13 @@
         <f t="shared" si="6"/>
         <v>336.52063961253316</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <f t="shared" si="7"/>
         <v>23022.136740688318</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1115,7 +1236,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>1659.8440470734874</v>
       </c>
@@ -1131,7 +1252,7 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f t="shared" si="11"/>
         <v>23022.136740688318</v>
       </c>
@@ -1139,7 +1260,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <f t="shared" si="5"/>
         <v>191.85113950573597</v>
       </c>
@@ -1147,13 +1268,13 @@
         <f t="shared" si="6"/>
         <v>339.32497827597092</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <f t="shared" si="7"/>
         <v>22682.811762412348</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1165,7 +1286,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="2"/>
         <v>1658.680264489321</v>
       </c>
@@ -1181,7 +1302,7 @@
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <f t="shared" si="11"/>
         <v>22682.811762412348</v>
       </c>
@@ -1189,7 +1310,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <f t="shared" si="5"/>
         <v>189.02343135343622</v>
       </c>
@@ -1197,13 +1318,13 @@
         <f t="shared" si="6"/>
         <v>342.15268642827073</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <f t="shared" si="7"/>
         <v>22340.659075984076</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1215,7 +1336,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="2"/>
         <v>1657.5087233545935</v>
       </c>
@@ -1231,7 +1352,7 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <f t="shared" si="11"/>
         <v>22340.659075984076</v>
       </c>
@@ -1239,7 +1360,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <f t="shared" si="5"/>
         <v>186.17215896653397</v>
       </c>
@@ -1247,13 +1368,13 @@
         <f t="shared" si="6"/>
         <v>345.00395881517295</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <f t="shared" si="7"/>
         <v>21995.655117168903</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1265,7 +1386,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>1656.3293719456346</v>
       </c>
@@ -1281,7 +1402,7 @@
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <f t="shared" si="11"/>
         <v>21995.655117168903</v>
       </c>
@@ -1289,7 +1410,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <f t="shared" si="5"/>
         <v>183.29712597640753</v>
       </c>
@@ -1297,13 +1418,13 @@
         <f t="shared" si="6"/>
         <v>347.87899180529939</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <f t="shared" si="7"/>
         <v>21647.776125363602</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1315,7 +1436,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="2"/>
         <v>1655.1421581939492</v>
       </c>
@@ -1331,7 +1452,7 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <f t="shared" si="11"/>
         <v>21647.776125363602</v>
       </c>
@@ -1339,7 +1460,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <f t="shared" si="5"/>
         <v>180.39813437803002</v>
       </c>
@@ -1347,13 +1468,13 @@
         <f t="shared" si="6"/>
         <v>350.7779834036769</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <f t="shared" si="7"/>
         <v>21296.998141959924</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1365,7 +1486,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="2"/>
         <v>1653.9470296839193</v>
       </c>
@@ -1381,7 +1502,7 @@
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <f t="shared" si="11"/>
         <v>21296.998141959924</v>
       </c>
@@ -1389,7 +1510,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <f t="shared" si="5"/>
         <v>177.47498451633271</v>
       </c>
@@ -1397,13 +1518,13 @@
         <f t="shared" si="6"/>
         <v>353.70113326537421</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <f t="shared" si="7"/>
         <v>20943.29700869455</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1415,7 +1536,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>1652.743933650489</v>
       </c>
@@ -1431,7 +1552,7 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <f t="shared" si="11"/>
         <v>20943.29700869455</v>
       </c>
@@ -1439,7 +1560,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <f t="shared" si="5"/>
         <v>174.52747507245459</v>
       </c>
@@ -1447,13 +1568,13 @@
         <f t="shared" si="6"/>
         <v>356.64864270925233</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <f t="shared" si="7"/>
         <v>20586.648365985297</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1465,7 +1586,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="2"/>
         <v>1651.5328169768361</v>
       </c>
@@ -1481,7 +1602,7 @@
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <f t="shared" si="11"/>
         <v>20586.648365985297</v>
       </c>
@@ -1489,7 +1610,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <f t="shared" si="5"/>
         <v>171.55540304987747</v>
       </c>
@@ -1497,13 +1618,13 @@
         <f t="shared" si="6"/>
         <v>359.62071473182948</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="3">
         <f t="shared" si="7"/>
         <v>20227.027651253466</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1515,7 +1636,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="2"/>
         <v>1650.3136261920254</v>
       </c>
@@ -1531,7 +1652,7 @@
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <f t="shared" si="11"/>
         <v>20227.027651253466</v>
       </c>
@@ -1539,7 +1660,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <f t="shared" si="5"/>
         <v>168.55856376044554</v>
       </c>
@@ -1547,13 +1668,13 @@
         <f t="shared" si="6"/>
         <v>362.61755402126141</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <f t="shared" si="7"/>
         <v>19864.410097232205</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1565,7 +1686,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>1649.0863074686492</v>
       </c>
@@ -1581,7 +1702,7 @@
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <f t="shared" si="11"/>
         <v>19864.410097232205</v>
       </c>
@@ -1589,7 +1710,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <f t="shared" si="5"/>
         <v>165.53675081026836</v>
       </c>
@@ -1597,13 +1718,13 @@
         <f t="shared" si="6"/>
         <v>365.63936697143856</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <f t="shared" si="7"/>
         <v>19498.770730260767</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1615,7 +1736,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>1647.8508066204506</v>
       </c>
@@ -1631,7 +1752,7 @@
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <f t="shared" si="11"/>
         <v>19498.770730260767</v>
       </c>
@@ -1639,7 +1760,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <f t="shared" si="5"/>
         <v>162.4897560855064</v>
       </c>
@@ -1647,13 +1768,13 @@
         <f t="shared" si="6"/>
         <v>368.68636169620049</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <f t="shared" si="7"/>
         <v>19130.084368564567</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1665,7 +1786,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f t="shared" si="2"/>
         <v>1646.6070690999306</v>
       </c>
@@ -1681,7 +1802,7 @@
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <f t="shared" si="11"/>
         <v>19130.084368564567</v>
       </c>
@@ -1689,7 +1810,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <f t="shared" si="5"/>
         <v>159.41736973803805</v>
       </c>
@@ -1697,13 +1818,13 @@
         <f t="shared" si="6"/>
         <v>371.7587480436689</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <f t="shared" si="7"/>
         <v>18758.325620520896</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1715,7 +1836,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>1645.3550399959406</v>
       </c>
@@ -1731,7 +1852,7 @@
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <f t="shared" si="11"/>
         <v>18758.325620520896</v>
       </c>
@@ -1739,7 +1860,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <f t="shared" si="5"/>
         <v>156.31938017100748</v>
       </c>
@@ -1747,13 +1868,13 @@
         <f t="shared" si="6"/>
         <v>374.85673761069944</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <f t="shared" si="7"/>
         <v>18383.468882910198</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1765,7 +1886,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <f t="shared" si="2"/>
         <v>1644.0946640312575</v>
       </c>
@@ -1781,7 +1902,7 @@
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <f t="shared" si="11"/>
         <v>18383.468882910198</v>
       </c>
@@ -1789,7 +1910,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <f t="shared" si="5"/>
         <v>153.19557402425164</v>
       </c>
@@ -1797,13 +1918,13 @@
         <f t="shared" si="6"/>
         <v>377.98054375745528</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <f t="shared" si="7"/>
         <v>18005.488339152744</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1815,7 +1936,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" si="2"/>
         <v>1642.8258855601428</v>
       </c>
@@ -1831,7 +1952,7 @@
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <f t="shared" si="11"/>
         <v>18005.488339152744</v>
       </c>
@@ -1839,7 +1960,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <f t="shared" si="5"/>
         <v>150.04573615960621</v>
       </c>
@@ -1847,13 +1968,13 @@
         <f t="shared" si="6"/>
         <v>381.13038162210069</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="3">
         <f t="shared" si="7"/>
         <v>17624.357957530643</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -1865,7 +1986,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>1641.5486485658873</v>
       </c>
@@ -1881,7 +2002,7 @@
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <f t="shared" si="11"/>
         <v>17624.357957530643</v>
       </c>
@@ -1889,7 +2010,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <f t="shared" si="5"/>
         <v>146.8696496460887</v>
       </c>
@@ -1897,13 +2018,13 @@
         <f t="shared" si="6"/>
         <v>384.30646813561822</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="3">
         <f t="shared" si="7"/>
         <v>17240.051489395024</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -1915,7 +2036,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>1640.262896658337</v>
       </c>
@@ -1931,7 +2052,7 @@
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <f t="shared" si="11"/>
         <v>17240.051489395024</v>
       </c>
@@ -1939,7 +2060,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <f t="shared" si="5"/>
         <v>143.66709574495854</v>
       </c>
@@ -1947,13 +2068,13 @@
         <f t="shared" si="6"/>
         <v>387.50902203674838</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="3">
         <f t="shared" si="7"/>
         <v>16852.542467358275</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -1965,7 +2086,7 @@
         <f>$C$4 +20000</f>
         <v>21834.411434698442</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f t="shared" si="2"/>
         <v>1638.9685730714029</v>
       </c>
@@ -1981,7 +2102,7 @@
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <f t="shared" si="11"/>
         <v>16852.542467358275</v>
       </c>
@@ -1989,7 +2110,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <f t="shared" si="5"/>
         <v>140.43785389465228</v>
       </c>
@@ -1997,13 +2118,13 @@
         <f t="shared" si="6"/>
         <v>390.73826388705464</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="3">
         <f t="shared" si="7"/>
         <v>16461.80420347122</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2015,7 +2136,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>1504.3322873272227</v>
       </c>
@@ -2031,7 +2152,7 @@
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <f t="shared" si="11"/>
         <v>16461.80420347122</v>
       </c>
@@ -2039,7 +2160,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <f t="shared" si="5"/>
         <v>137.18170169559349</v>
       </c>
@@ -2047,13 +2168,13 @@
         <f t="shared" si="6"/>
         <v>393.99441608611346</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="3">
         <f t="shared" si="7"/>
         <v>16067.809787385106</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2065,7 +2186,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>1502.1317596780812</v>
       </c>
@@ -2081,7 +2202,7 @@
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <f t="shared" si="11"/>
         <v>16067.809787385106</v>
       </c>
@@ -2089,7 +2210,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <f t="shared" si="5"/>
         <v>133.89841489487588</v>
       </c>
@@ -2097,13 +2218,13 @@
         <f t="shared" si="6"/>
         <v>397.27770288683104</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="3">
         <f t="shared" si="7"/>
         <v>15670.532084498274</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="B33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2115,7 +2236,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <f t="shared" si="2"/>
         <v>1499.916561844612</v>
       </c>
@@ -2131,7 +2252,7 @@
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <f t="shared" si="11"/>
         <v>15670.532084498274</v>
       </c>
@@ -2139,7 +2260,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <f t="shared" si="5"/>
         <v>130.58776737081894</v>
       </c>
@@ -2147,13 +2268,13 @@
         <f t="shared" si="6"/>
         <v>400.58835041088798</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="3">
         <f t="shared" si="7"/>
         <v>15269.943734087386</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2165,7 +2286,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="2"/>
         <v>1497.6865960255866</v>
       </c>
@@ -2181,7 +2302,7 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <f t="shared" si="11"/>
         <v>15269.943734087386</v>
       </c>
@@ -2189,7 +2310,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <f t="shared" si="5"/>
         <v>127.24953111739488</v>
       </c>
@@ -2197,13 +2318,13 @@
         <f t="shared" si="6"/>
         <v>403.92658666431203</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="3">
         <f t="shared" si="7"/>
         <v>14866.017147423074</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
+      <c r="B35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -2215,7 +2336,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="2"/>
         <v>1495.4417637677675</v>
       </c>
@@ -2231,7 +2352,7 @@
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <f t="shared" si="11"/>
         <v>14866.017147423074</v>
       </c>
@@ -2239,7 +2360,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <f t="shared" si="5"/>
         <v>123.88347622852561</v>
       </c>
@@ -2247,13 +2368,13 @@
         <f t="shared" si="6"/>
         <v>407.29264155318128</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="3">
         <f t="shared" si="7"/>
         <v>14458.724505869892</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2265,7 +2386,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <f t="shared" si="2"/>
         <v>1493.181965961563</v>
       </c>
@@ -2281,7 +2402,7 @@
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <f t="shared" si="11"/>
         <v>14458.724505869892</v>
       </c>
@@ -2289,7 +2410,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="3">
         <f t="shared" si="5"/>
         <v>120.48937088224909</v>
       </c>
@@ -2297,13 +2418,13 @@
         <f t="shared" si="6"/>
         <v>410.68674689945783</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="3">
         <f t="shared" si="7"/>
         <v>14048.037758970433</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="3">
+      <c r="B37">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -2315,7 +2436,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="2"/>
         <v>1490.9071028366504</v>
       </c>
@@ -2331,7 +2452,7 @@
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <f t="shared" si="11"/>
         <v>14048.037758970433</v>
       </c>
@@ -2339,7 +2460,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <f t="shared" si="5"/>
         <v>117.06698132475361</v>
       </c>
@@ -2347,13 +2468,13 @@
         <f t="shared" si="6"/>
         <v>414.10913645695331</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37" s="3">
         <f t="shared" si="7"/>
         <v>13633.92862251348</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2365,7 +2486,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="2"/>
         <v>1488.6170739575718</v>
       </c>
@@ -2381,7 +2502,7 @@
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <f t="shared" si="11"/>
         <v>13633.92862251348</v>
       </c>
@@ -2389,7 +2510,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="3">
         <f t="shared" si="5"/>
         <v>113.616071854279</v>
       </c>
@@ -2397,13 +2518,13 @@
         <f t="shared" si="6"/>
         <v>417.56004592742795</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="3">
         <f t="shared" si="7"/>
         <v>13216.368576586052</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="3">
+      <c r="B39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2415,7 +2536,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <f t="shared" si="2"/>
         <v>1486.3117782192994</v>
       </c>
@@ -2431,7 +2552,7 @@
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <f t="shared" si="11"/>
         <v>13216.368576586052</v>
       </c>
@@ -2439,7 +2560,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="3">
         <f t="shared" si="5"/>
         <v>110.13640480488377</v>
       </c>
@@ -2447,13 +2568,13 @@
         <f t="shared" si="6"/>
         <v>421.03971297682313</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="3">
         <f t="shared" si="7"/>
         <v>12795.328863609229</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="3">
+      <c r="B40">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -2465,7 +2586,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <f t="shared" si="2"/>
         <v>1483.9911138427719</v>
       </c>
@@ -2481,7 +2602,7 @@
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <f t="shared" si="11"/>
         <v>12795.328863609229</v>
       </c>
@@ -2489,7 +2610,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="3">
         <f t="shared" si="5"/>
         <v>106.62774053007691</v>
       </c>
@@ -2497,13 +2618,13 @@
         <f t="shared" si="6"/>
         <v>424.54837725163003</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R40" s="3">
         <f t="shared" si="7"/>
         <v>12370.780486357598</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
+      <c r="B41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2515,7 +2636,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <f t="shared" si="2"/>
         <v>1481.6549783704008</v>
       </c>
@@ -2531,7 +2652,7 @@
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <f t="shared" si="11"/>
         <v>12370.780486357598</v>
       </c>
@@ -2539,7 +2660,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="3">
         <f t="shared" si="5"/>
         <v>103.08983738631332</v>
       </c>
@@ -2547,13 +2668,13 @@
         <f t="shared" si="6"/>
         <v>428.0862803953936</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R41" s="3">
         <f t="shared" si="7"/>
         <v>11942.694205962205</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="3">
+      <c r="B42">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2565,7 +2686,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <f t="shared" si="2"/>
         <v>1479.3032686615472</v>
       </c>
@@ -2581,7 +2702,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <f t="shared" si="11"/>
         <v>11942.694205962205</v>
       </c>
@@ -2589,7 +2710,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="3">
         <f t="shared" si="5"/>
         <v>99.522451716351711</v>
       </c>
@@ -2597,13 +2718,13 @@
         <f t="shared" si="6"/>
         <v>431.6536660653552</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R42" s="3">
         <f t="shared" si="7"/>
         <v>11511.040539896851</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
+      <c r="B43">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -2615,7 +2736,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <f t="shared" si="2"/>
         <v>1476.9358808879679</v>
       </c>
@@ -2631,7 +2752,7 @@
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <f t="shared" si="11"/>
         <v>11511.040539896851</v>
       </c>
@@ -2639,7 +2760,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="3">
         <f t="shared" si="5"/>
         <v>95.925337832473758</v>
       </c>
@@ -2647,13 +2768,13 @@
         <f t="shared" si="6"/>
         <v>435.25077994923316</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="3">
         <f t="shared" si="7"/>
         <v>11075.789759947618</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="3">
+      <c r="B44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -2665,7 +2786,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <f t="shared" si="2"/>
         <v>1474.5527105292315</v>
       </c>
@@ -2681,7 +2802,7 @@
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <f t="shared" si="11"/>
         <v>11075.789759947618</v>
       </c>
@@ -2689,7 +2810,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="3">
         <f t="shared" si="5"/>
         <v>92.298247999563486</v>
       </c>
@@ -2697,13 +2818,13 @@
         <f t="shared" si="6"/>
         <v>438.87786978214342</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="3">
         <f t="shared" si="7"/>
         <v>10636.911890165475</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="3">
+      <c r="B45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -2715,7 +2836,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <f t="shared" si="2"/>
         <v>1472.1536523681034</v>
       </c>
@@ -2731,7 +2852,7 @@
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <f t="shared" si="11"/>
         <v>10636.911890165475</v>
       </c>
@@ -2739,7 +2860,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="3">
         <f t="shared" si="5"/>
         <v>88.640932418045622</v>
       </c>
@@ -2747,13 +2868,13 @@
         <f t="shared" si="6"/>
         <v>442.5351853636613</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="3">
         <f t="shared" si="7"/>
         <v>10194.376704801813</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="3">
+      <c r="B46">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2765,7 +2886,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <f t="shared" si="2"/>
         <v>1469.7386004859013</v>
       </c>
@@ -2781,7 +2902,7 @@
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="3">
         <f t="shared" si="11"/>
         <v>10194.376704801813</v>
       </c>
@@ -2789,7 +2910,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="3">
         <f t="shared" si="5"/>
         <v>84.953139206681769</v>
       </c>
@@ -2797,13 +2918,13 @@
         <f t="shared" si="6"/>
         <v>446.22297857502514</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="3">
         <f t="shared" si="7"/>
         <v>9748.1537262267866</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="3">
+      <c r="B47">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2815,7 +2936,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <f t="shared" si="2"/>
         <v>1467.3074482578177</v>
       </c>
@@ -2831,7 +2952,7 @@
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <f t="shared" si="11"/>
         <v>9748.1537262267866</v>
       </c>
@@ -2839,7 +2960,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="3">
         <f t="shared" si="5"/>
         <v>81.234614385223225</v>
       </c>
@@ -2847,13 +2968,13 @@
         <f t="shared" si="6"/>
         <v>449.94150339648371</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="3">
         <f t="shared" si="7"/>
         <v>9298.2122228303033</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="3">
+      <c r="B48">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2865,7 +2986,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <f t="shared" si="2"/>
         <v>1464.8600883482134</v>
       </c>
@@ -2881,7 +3002,7 @@
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <f t="shared" si="11"/>
         <v>9298.2122228303033</v>
       </c>
@@ -2889,7 +3010,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="3">
         <f t="shared" si="5"/>
         <v>77.485101856919187</v>
       </c>
@@ -2897,13 +3018,13 @@
         <f t="shared" si="6"/>
         <v>453.69101592478773</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="3">
         <f t="shared" si="7"/>
         <v>8844.521206905516</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="3">
+      <c r="B49">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2915,7 +3036,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <f t="shared" si="2"/>
         <v>1462.3964127058784</v>
       </c>
@@ -2931,7 +3052,7 @@
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <f t="shared" si="11"/>
         <v>8844.521206905516</v>
       </c>
@@ -2939,7 +3060,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="3">
         <f t="shared" si="5"/>
         <v>73.704343390879302</v>
       </c>
@@ -2947,13 +3068,13 @@
         <f t="shared" si="6"/>
         <v>457.47177439082759</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R49" s="3">
         <f t="shared" si="7"/>
         <v>8387.0494325146883</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
+      <c r="B50">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -2965,7 +3086,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <f t="shared" si="2"/>
         <v>1459.9163125592615</v>
       </c>
@@ -2981,7 +3102,7 @@
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <f t="shared" si="11"/>
         <v>8387.0494325146883</v>
       </c>
@@ -2989,7 +3110,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <f t="shared" si="5"/>
         <v>69.892078604289068</v>
       </c>
@@ -2997,13 +3118,13 @@
         <f t="shared" si="6"/>
         <v>461.28403917741787</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="3">
         <f t="shared" si="7"/>
         <v>7925.7653933372703</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="3">
+      <c r="B51">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -3015,7 +3136,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <f t="shared" si="2"/>
         <v>1457.4196784116671</v>
       </c>
@@ -3031,7 +3152,7 @@
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <f t="shared" si="11"/>
         <v>7925.7653933372703</v>
       </c>
@@ -3039,7 +3160,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="3">
         <f t="shared" si="5"/>
         <v>66.048044944477255</v>
       </c>
@@ -3047,13 +3168,13 @@
         <f t="shared" si="6"/>
         <v>465.12807283722964</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="3">
         <f t="shared" si="7"/>
         <v>7460.6373205000409</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="3">
+      <c r="B52">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -3065,7 +3186,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <f t="shared" si="2"/>
         <v>1454.9064000364219</v>
       </c>
@@ -3081,7 +3202,7 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <f t="shared" si="11"/>
         <v>7460.6373205000409</v>
       </c>
@@ -3089,7 +3210,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="3">
         <f t="shared" si="5"/>
         <v>62.171977670833677</v>
       </c>
@@ -3097,13 +3218,13 @@
         <f t="shared" si="6"/>
         <v>469.00414011087327</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="3">
         <f t="shared" si="7"/>
         <v>6991.633180389168</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="3">
+      <c r="B53">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -3115,7 +3236,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <f t="shared" si="2"/>
         <v>1452.3763664720084</v>
       </c>
@@ -3131,7 +3252,7 @@
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <f t="shared" si="11"/>
         <v>6991.633180389168</v>
       </c>
@@ -3139,7 +3260,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="3">
         <f t="shared" si="5"/>
         <v>58.2636098365764</v>
       </c>
@@ -3147,13 +3268,13 @@
         <f t="shared" si="6"/>
         <v>472.91250794513053</v>
       </c>
-      <c r="R53" s="4">
+      <c r="R53" s="3">
         <f t="shared" si="7"/>
         <v>6518.7206724440375</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="3">
+      <c r="B54">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -3165,7 +3286,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <f t="shared" si="2"/>
         <v>1449.8294660171655</v>
       </c>
@@ -3181,7 +3302,7 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <f t="shared" si="11"/>
         <v>6518.7206724440375</v>
       </c>
@@ -3189,7 +3310,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="3">
         <f t="shared" si="5"/>
         <v>54.322672270366979</v>
       </c>
@@ -3197,13 +3318,13 @@
         <f t="shared" si="6"/>
         <v>476.85344551133994</v>
       </c>
-      <c r="R54" s="4">
+      <c r="R54" s="3">
         <f t="shared" si="7"/>
         <v>6041.867226932698</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="3">
+      <c r="B55">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -3215,7 +3336,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <f t="shared" si="2"/>
         <v>1447.2655862259571</v>
       </c>
@@ -3231,7 +3352,7 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="3">
         <f t="shared" si="11"/>
         <v>6041.867226932698</v>
       </c>
@@ -3239,7 +3360,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="3">
         <f t="shared" si="5"/>
         <v>50.348893557772485</v>
       </c>
@@ -3247,13 +3368,13 @@
         <f t="shared" si="6"/>
         <v>480.82722422393442</v>
       </c>
-      <c r="R55" s="4">
+      <c r="R55" s="3">
         <f t="shared" si="7"/>
         <v>5561.0400027087635</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="3">
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -3265,7 +3386,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <f t="shared" si="2"/>
         <v>1444.6846139028071</v>
       </c>
@@ -3281,7 +3402,7 @@
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="3">
         <f t="shared" si="11"/>
         <v>5561.0400027087635</v>
       </c>
@@ -3289,7 +3410,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="3">
         <f t="shared" si="5"/>
         <v>46.342000022573032</v>
       </c>
@@ -3297,13 +3418,13 @@
         <f t="shared" si="6"/>
         <v>484.8341177591339</v>
       </c>
-      <c r="R56" s="4">
+      <c r="R56" s="3">
         <f t="shared" si="7"/>
         <v>5076.2058849496298</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="3">
+      <c r="B57">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -3315,7 +3436,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <f t="shared" si="2"/>
         <v>1442.086435097503</v>
       </c>
@@ -3331,7 +3452,7 @@
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="3">
         <f t="shared" si="11"/>
         <v>5076.2058849496298</v>
       </c>
@@ -3339,7 +3460,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="3">
         <f t="shared" si="5"/>
         <v>42.30171570791358</v>
       </c>
@@ -3347,13 +3468,13 @@
         <f t="shared" si="6"/>
         <v>488.87440207379336</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="3">
         <f t="shared" si="7"/>
         <v>4587.3314828758366</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="3">
+      <c r="B58">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -3365,7 +3486,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <f t="shared" si="2"/>
         <v>1439.4709351001634</v>
       </c>
@@ -3381,7 +3502,7 @@
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="3">
         <f t="shared" si="11"/>
         <v>4587.3314828758366</v>
       </c>
@@ -3389,7 +3510,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="3">
         <f t="shared" si="5"/>
         <v>38.227762357298637</v>
       </c>
@@ -3397,13 +3518,13 @@
         <f t="shared" si="6"/>
         <v>492.94835542440831</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="3">
         <f t="shared" si="7"/>
         <v>4094.3831274514282</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="3">
+      <c r="B59">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -3415,7 +3536,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <f t="shared" si="2"/>
         <v>1436.837998436175</v>
       </c>
@@ -3431,7 +3552,7 @@
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N59" s="3">
         <f t="shared" si="11"/>
         <v>4094.3831274514282</v>
       </c>
@@ -3439,7 +3560,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="3">
         <f t="shared" si="5"/>
         <v>34.11985939542857</v>
       </c>
@@ -3447,13 +3568,13 @@
         <f t="shared" si="6"/>
         <v>497.05625838627833</v>
       </c>
-      <c r="R59" s="4">
+      <c r="R59" s="3">
         <f t="shared" si="7"/>
         <v>3597.3268690651498</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="3">
+      <c r="B60">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -3465,7 +3586,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <f t="shared" si="2"/>
         <v>1434.1875088610932</v>
       </c>
@@ -3481,7 +3602,7 @@
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="3">
         <f t="shared" si="11"/>
         <v>3597.3268690651498</v>
       </c>
@@ -3489,7 +3610,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="3">
         <f t="shared" si="5"/>
         <v>29.977723908876246</v>
       </c>
@@ -3497,13 +3618,13 @@
         <f t="shared" si="6"/>
         <v>501.19839387283065</v>
       </c>
-      <c r="R60" s="4">
+      <c r="R60" s="3">
         <f t="shared" si="7"/>
         <v>3096.128475192319</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="3">
+      <c r="B61">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -3515,7 +3636,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <f t="shared" si="2"/>
         <v>1431.5193493555109</v>
       </c>
@@ -3531,7 +3652,7 @@
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="3">
         <f t="shared" si="11"/>
         <v>3096.128475192319</v>
       </c>
@@ -3539,7 +3660,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="3">
         <f t="shared" si="5"/>
         <v>25.801070626602659</v>
       </c>
@@ -3547,13 +3668,13 @@
         <f t="shared" si="6"/>
         <v>505.37504715510426</v>
       </c>
-      <c r="R61" s="4">
+      <c r="R61" s="3">
         <f t="shared" si="7"/>
         <v>2590.7534280372147</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="3">
+      <c r="B62">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -3565,7 +3686,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <f t="shared" si="2"/>
         <v>1428.8334021198914</v>
       </c>
@@ -3581,7 +3702,7 @@
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="3">
         <f t="shared" si="11"/>
         <v>2590.7534280372147</v>
       </c>
@@ -3589,7 +3710,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="3">
         <f t="shared" si="5"/>
         <v>21.589611900310121</v>
       </c>
@@ -3597,13 +3718,13 @@
         <f t="shared" si="6"/>
         <v>509.58650588139682</v>
       </c>
-      <c r="R62" s="4">
+      <c r="R62" s="3">
         <f t="shared" si="7"/>
         <v>2081.1669221558177</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="3">
+      <c r="B63">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -3615,7 +3736,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <f t="shared" si="2"/>
         <v>1426.1295485693677</v>
       </c>
@@ -3631,7 +3752,7 @@
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="3">
         <f t="shared" si="11"/>
         <v>2081.1669221558177</v>
       </c>
@@ -3639,7 +3760,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="3">
         <f t="shared" si="5"/>
         <v>17.343057684631813</v>
       </c>
@@ -3647,13 +3768,13 @@
         <f t="shared" si="6"/>
         <v>513.83306009707508</v>
       </c>
-      <c r="R63" s="4">
+      <c r="R63" s="3">
         <f t="shared" si="7"/>
         <v>1567.3338620587426</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="3">
+      <c r="B64">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -3665,7 +3786,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <f t="shared" si="2"/>
         <v>1423.4076693285072</v>
       </c>
@@ -3681,7 +3802,7 @@
         <f t="shared" si="10"/>
         <v>58</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="3">
         <f t="shared" si="11"/>
         <v>1567.3338620587426</v>
       </c>
@@ -3689,7 +3810,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="3">
         <f t="shared" si="5"/>
         <v>13.061115517156189</v>
       </c>
@@ -3697,13 +3818,13 @@
         <f t="shared" si="6"/>
         <v>518.11500226455075</v>
       </c>
-      <c r="R64" s="4">
+      <c r="R64" s="3">
         <f t="shared" si="7"/>
         <v>1049.2188597941918</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="3">
+      <c r="B65">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -3715,7 +3836,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <f t="shared" si="2"/>
         <v>1420.6676442260409</v>
       </c>
@@ -3731,7 +3852,7 @@
         <f t="shared" si="10"/>
         <v>59</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="3">
         <f t="shared" si="11"/>
         <v>1049.2188597941918</v>
       </c>
@@ -3739,7 +3860,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="3">
         <f t="shared" si="5"/>
         <v>8.7434904982849311</v>
       </c>
@@ -3747,13 +3868,13 @@
         <f t="shared" si="6"/>
         <v>522.43262728342199</v>
       </c>
-      <c r="R65" s="4">
+      <c r="R65" s="3">
         <f t="shared" si="7"/>
         <v>526.78623251076976</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="3">
+      <c r="B66">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -3765,7 +3886,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <f t="shared" si="2"/>
         <v>1417.9093522895582</v>
       </c>
@@ -3781,7 +3902,7 @@
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="3">
         <f t="shared" si="11"/>
         <v>526.78623251076976</v>
       </c>
@@ -3789,7 +3910,7 @@
         <f t="shared" si="4"/>
         <v>531.17611778170692</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="3">
         <f t="shared" si="5"/>
         <v>4.3898852709230809</v>
       </c>
@@ -3797,13 +3918,13 @@
         <f t="shared" si="6"/>
         <v>526.78623251078386</v>
       </c>
-      <c r="R66" s="4">
+      <c r="R66" s="3">
         <f t="shared" si="7"/>
         <v>-1.4097167877480388E-11</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="3">
+      <c r="B67">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -3815,7 +3936,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <f t="shared" si="2"/>
         <v>1415.1326717401657</v>
       </c>
@@ -3827,14 +3948,14 @@
         <f t="shared" si="9"/>
         <v>211850.62199806658</v>
       </c>
-      <c r="N67" s="4"/>
+      <c r="N67" s="3"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="4"/>
+      <c r="P67" s="3"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="4"/>
+      <c r="R67" s="3"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="3">
+      <c r="B68">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -3846,7 +3967,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <f t="shared" si="2"/>
         <v>1412.3374799871106</v>
       </c>
@@ -3858,14 +3979,14 @@
         <f t="shared" si="9"/>
         <v>211428.54804335526</v>
       </c>
-      <c r="N68" s="4"/>
+      <c r="N68" s="3"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="4"/>
+      <c r="P68" s="3"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="4"/>
+      <c r="R68" s="3"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="3">
+      <c r="B69">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -3877,7 +3998,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <f t="shared" si="2"/>
         <v>1409.5236536223686</v>
       </c>
@@ -3889,14 +4010,14 @@
         <f t="shared" si="9"/>
         <v>211003.66026227918</v>
       </c>
-      <c r="N69" s="4"/>
+      <c r="N69" s="3"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="4"/>
+      <c r="P69" s="3"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="4"/>
+      <c r="R69" s="3"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="3">
+      <c r="B70">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -3908,7 +4029,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <f t="shared" si="2"/>
         <v>1406.6910684151946</v>
       </c>
@@ -3920,14 +4041,14 @@
         <f t="shared" si="9"/>
         <v>210575.93989599595</v>
       </c>
-      <c r="N70" s="4"/>
+      <c r="N70" s="3"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="4"/>
+      <c r="P70" s="3"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="4"/>
+      <c r="R70" s="3"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="3">
+      <c r="B71">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -3939,7 +4060,7 @@
         <f t="shared" si="1"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <f t="shared" si="2"/>
         <v>1403.8395993066397</v>
       </c>
@@ -3951,14 +4072,14 @@
         <f t="shared" si="9"/>
         <v>210145.36806060415</v>
       </c>
-      <c r="N71" s="4"/>
+      <c r="N71" s="3"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="4"/>
+      <c r="P71" s="3"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="4"/>
+      <c r="R71" s="3"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="3">
+      <c r="B72">
         <f t="shared" ref="B72:B135" si="12">(B71+1)</f>
         <v>66</v>
       </c>
@@ -3970,7 +4091,7 @@
         <f t="shared" ref="D72:D135" si="13">$C$4</f>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <f t="shared" ref="E72:E135" si="14">C72*(C$2/12)</f>
         <v>1400.9691204040278</v>
       </c>
@@ -3982,14 +4103,14 @@
         <f t="shared" ref="G72:G135" si="16">C72-F72</f>
         <v>209711.92574630975</v>
       </c>
-      <c r="N72" s="4"/>
+      <c r="N72" s="3"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="4"/>
+      <c r="P72" s="3"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="4"/>
+      <c r="R72" s="3"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="3">
+      <c r="B73">
         <f t="shared" si="12"/>
         <v>67</v>
       </c>
@@ -4001,7 +4122,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <f t="shared" si="14"/>
         <v>1398.0795049753983</v>
       </c>
@@ -4015,7 +4136,7 @@
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="3">
+      <c r="B74">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
@@ -4027,7 +4148,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <f t="shared" si="14"/>
         <v>1395.1706254439116</v>
       </c>
@@ -4041,7 +4162,7 @@
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="3">
+      <c r="B75">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
@@ -4053,7 +4174,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <f t="shared" si="14"/>
         <v>1392.2423533822148</v>
       </c>
@@ -4067,7 +4188,7 @@
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="3">
+      <c r="B76">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
@@ -4079,7 +4200,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <f t="shared" si="14"/>
         <v>1389.2945595067733</v>
       </c>
@@ -4093,7 +4214,7 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="3">
+      <c r="B77">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
@@ -4105,7 +4226,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <f t="shared" si="14"/>
         <v>1386.3271136721621</v>
       </c>
@@ -4119,7 +4240,7 @@
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="3">
+      <c r="B78">
         <f t="shared" si="12"/>
         <v>72</v>
       </c>
@@ -4131,7 +4252,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <f t="shared" si="14"/>
         <v>1383.3398848653203</v>
       </c>
@@ -4145,7 +4266,7 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="3">
+      <c r="B79">
         <f t="shared" si="12"/>
         <v>73</v>
       </c>
@@ -4157,7 +4278,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <f t="shared" si="14"/>
         <v>1380.3327411997664</v>
       </c>
@@ -4171,7 +4292,7 @@
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="3">
+      <c r="B80">
         <f t="shared" si="12"/>
         <v>74</v>
       </c>
@@ -4183,7 +4304,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <f t="shared" si="14"/>
         <v>1377.305549909775</v>
       </c>
@@ -4197,7 +4318,7 @@
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="3">
+      <c r="B81">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
@@ -4209,7 +4330,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <f t="shared" si="14"/>
         <v>1374.2581773445172</v>
       </c>
@@ -4223,7 +4344,7 @@
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="3">
+      <c r="B82">
         <f t="shared" si="12"/>
         <v>76</v>
       </c>
@@ -4235,7 +4356,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <f t="shared" si="14"/>
         <v>1371.1904889621576</v>
       </c>
@@ -4249,7 +4370,7 @@
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="3">
+      <c r="B83">
         <f t="shared" si="12"/>
         <v>77</v>
       </c>
@@ -4261,7 +4382,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <f t="shared" si="14"/>
         <v>1368.1023493239159</v>
       </c>
@@ -4275,7 +4396,7 @@
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="3">
+      <c r="B84">
         <f t="shared" si="12"/>
         <v>78</v>
       </c>
@@ -4287,7 +4408,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <f t="shared" si="14"/>
         <v>1364.9936220880857</v>
       </c>
@@ -4301,7 +4422,7 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="3">
+      <c r="B85">
         <f t="shared" si="12"/>
         <v>79</v>
       </c>
@@ -4313,7 +4434,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <f t="shared" si="14"/>
         <v>1361.8641700040166</v>
       </c>
@@ -4327,7 +4448,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="3">
+      <c r="B86">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4339,7 +4460,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <f t="shared" si="14"/>
         <v>1358.7138549060539</v>
       </c>
@@ -4353,7 +4474,7 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="3">
+      <c r="B87">
         <f t="shared" si="12"/>
         <v>81</v>
       </c>
@@ -4365,7 +4486,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <f t="shared" si="14"/>
         <v>1355.542537707438</v>
       </c>
@@ -4379,7 +4500,7 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="3">
+      <c r="B88">
         <f t="shared" si="12"/>
         <v>82</v>
       </c>
@@ -4391,7 +4512,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <f t="shared" si="14"/>
         <v>1352.3500783941645</v>
       </c>
@@ -4405,7 +4526,7 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="3">
+      <c r="B89">
         <f t="shared" si="12"/>
         <v>83</v>
       </c>
@@ -4417,7 +4538,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <f t="shared" si="14"/>
         <v>1349.1363360188027</v>
       </c>
@@ -4431,7 +4552,7 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="3">
+      <c r="B90">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
@@ -4443,7 +4564,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <f t="shared" si="14"/>
         <v>1345.9011686942717</v>
       </c>
@@ -4457,7 +4578,7 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="3">
+      <c r="B91">
         <f t="shared" si="12"/>
         <v>85</v>
       </c>
@@ -4469,7 +4590,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <f t="shared" si="14"/>
         <v>1342.6444335875774</v>
       </c>
@@ -4483,7 +4604,7 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="3">
+      <c r="B92">
         <f t="shared" si="12"/>
         <v>86</v>
       </c>
@@ -4495,7 +4616,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <f t="shared" si="14"/>
         <v>1339.3659869135049</v>
       </c>
@@ -4509,7 +4630,7 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="3">
+      <c r="B93">
         <f t="shared" si="12"/>
         <v>87</v>
       </c>
@@ -4521,7 +4642,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <f t="shared" si="14"/>
         <v>1336.0656839282719</v>
       </c>
@@ -4535,7 +4656,7 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="3">
+      <c r="B94">
         <f t="shared" si="12"/>
         <v>88</v>
       </c>
@@ -4547,7 +4668,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <f t="shared" si="14"/>
         <v>1332.7433789231375</v>
       </c>
@@ -4561,7 +4682,7 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="3">
+      <c r="B95">
         <f t="shared" si="12"/>
         <v>89</v>
       </c>
@@ -4573,7 +4694,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <f t="shared" si="14"/>
         <v>1329.3989252179688</v>
       </c>
@@ -4587,7 +4708,7 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="3">
+      <c r="B96">
         <f t="shared" si="12"/>
         <v>90</v>
       </c>
@@ -4599,7 +4720,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <f t="shared" si="14"/>
         <v>1326.0321751547656</v>
       </c>
@@ -4613,7 +4734,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="3">
+      <c r="B97">
         <f t="shared" si="12"/>
         <v>91</v>
       </c>
@@ -4625,7 +4746,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <f t="shared" si="14"/>
         <v>1322.6429800911412</v>
       </c>
@@ -4639,7 +4760,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="3">
+      <c r="B98">
         <f t="shared" si="12"/>
         <v>92</v>
       </c>
@@ -4651,7 +4772,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <f t="shared" si="14"/>
         <v>1319.2311903937593</v>
       </c>
@@ -4665,7 +4786,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" s="3">
+      <c r="B99">
         <f t="shared" si="12"/>
         <v>93</v>
       </c>
@@ -4677,7 +4798,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <f t="shared" si="14"/>
         <v>1315.7966554317281</v>
       </c>
@@ -4691,7 +4812,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="3">
+      <c r="B100">
         <f t="shared" si="12"/>
         <v>94</v>
       </c>
@@ -4703,7 +4824,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <f t="shared" si="14"/>
         <v>1312.33922356995</v>
       </c>
@@ -4717,7 +4838,7 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="3">
+      <c r="B101">
         <f t="shared" si="12"/>
         <v>95</v>
       </c>
@@ -4729,7 +4850,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <f t="shared" si="14"/>
         <v>1308.8587421624268</v>
       </c>
@@ -4743,7 +4864,7 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="3">
+      <c r="B102">
         <f t="shared" si="12"/>
         <v>96</v>
       </c>
@@ -4755,7 +4876,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="3">
         <f t="shared" si="14"/>
         <v>1305.3550575455201</v>
       </c>
@@ -4769,7 +4890,7 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103" s="3">
+      <c r="B103">
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
@@ -4781,7 +4902,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <f t="shared" si="14"/>
         <v>1301.8280150311673</v>
       </c>
@@ -4795,7 +4916,7 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="3">
+      <c r="B104">
         <f t="shared" si="12"/>
         <v>98</v>
       </c>
@@ -4807,7 +4928,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <f t="shared" si="14"/>
         <v>1298.2774589000524</v>
       </c>
@@ -4821,7 +4942,7 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="3">
+      <c r="B105">
         <f t="shared" si="12"/>
         <v>99</v>
       </c>
@@ -4833,7 +4954,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <f t="shared" si="14"/>
         <v>1294.7032323947296</v>
       </c>
@@ -4847,7 +4968,7 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="3">
+      <c r="B106">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
@@ -4859,7 +4980,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <f t="shared" si="14"/>
         <v>1291.105177712705</v>
       </c>
@@ -4873,7 +4994,7 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B107" s="3">
+      <c r="B107">
         <f t="shared" si="12"/>
         <v>101</v>
       </c>
@@ -4885,7 +5006,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <f t="shared" si="14"/>
         <v>1287.4831359994669</v>
       </c>
@@ -4899,7 +5020,7 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108" s="3">
+      <c r="B108">
         <f t="shared" si="12"/>
         <v>102</v>
       </c>
@@ -4911,7 +5032,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="3">
         <f t="shared" si="14"/>
         <v>1283.8369473414737</v>
       </c>
@@ -4925,7 +5046,7 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="3">
+      <c r="B109">
         <f t="shared" si="12"/>
         <v>103</v>
       </c>
@@ -4937,7 +5058,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="3">
         <f t="shared" si="14"/>
         <v>1280.166450759094</v>
       </c>
@@ -4951,7 +5072,7 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="3">
+      <c r="B110">
         <f t="shared" si="12"/>
         <v>104</v>
       </c>
@@ -4963,7 +5084,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="3">
         <f t="shared" si="14"/>
         <v>1276.4714841994983</v>
       </c>
@@ -4977,7 +5098,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="3">
+      <c r="B111">
         <f t="shared" si="12"/>
         <v>105</v>
       </c>
@@ -4989,7 +5110,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <f t="shared" si="14"/>
         <v>1272.7518845295053</v>
       </c>
@@ -5003,7 +5124,7 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" s="3">
+      <c r="B112">
         <f t="shared" si="12"/>
         <v>106</v>
       </c>
@@ -5015,7 +5136,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <f t="shared" si="14"/>
         <v>1269.0074875283792</v>
       </c>
@@ -5029,7 +5150,7 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B113" s="3">
+      <c r="B113">
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
@@ -5041,7 +5162,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <f t="shared" si="14"/>
         <v>1265.2381278805788</v>
       </c>
@@ -5055,7 +5176,7 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="3">
+      <c r="B114">
         <f t="shared" si="12"/>
         <v>108</v>
       </c>
@@ -5067,7 +5188,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <f t="shared" si="14"/>
         <v>1261.4436391684596</v>
       </c>
@@ -5081,7 +5202,7 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="3">
+      <c r="B115">
         <f t="shared" si="12"/>
         <v>109</v>
       </c>
@@ -5093,7 +5214,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <f t="shared" si="14"/>
         <v>1257.6238538649263</v>
       </c>
@@ -5107,7 +5228,7 @@
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="3">
+      <c r="B116">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
@@ -5119,7 +5240,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <f t="shared" si="14"/>
         <v>1253.7786033260363</v>
       </c>
@@ -5133,7 +5254,7 @@
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B117" s="3">
+      <c r="B117">
         <f t="shared" si="12"/>
         <v>111</v>
       </c>
@@ -5145,7 +5266,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <f t="shared" si="14"/>
         <v>1249.9077177835536</v>
       </c>
@@ -5159,7 +5280,7 @@
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B118" s="3">
+      <c r="B118">
         <f t="shared" si="12"/>
         <v>112</v>
       </c>
@@ -5171,7 +5292,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <f t="shared" si="14"/>
         <v>1246.0110263374543</v>
       </c>
@@ -5185,7 +5306,7 @@
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B119" s="3">
+      <c r="B119">
         <f t="shared" si="12"/>
         <v>113</v>
       </c>
@@ -5197,7 +5318,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <f t="shared" si="14"/>
         <v>1242.088356948381</v>
       </c>
@@ -5211,7 +5332,7 @@
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B120" s="3">
+      <c r="B120">
         <f t="shared" si="12"/>
         <v>114</v>
       </c>
@@ -5223,7 +5344,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <f t="shared" si="14"/>
         <v>1238.1395364300472</v>
       </c>
@@ -5237,7 +5358,7 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B121" s="3">
+      <c r="B121">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
@@ -5249,7 +5370,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <f t="shared" si="14"/>
         <v>1234.1643904415912</v>
       </c>
@@ -5263,7 +5384,7 @@
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B122" s="3">
+      <c r="B122">
         <f t="shared" si="12"/>
         <v>116</v>
       </c>
@@ -5275,7 +5396,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <f t="shared" si="14"/>
         <v>1230.1627434798788</v>
       </c>
@@ -5289,7 +5410,7 @@
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B123" s="3">
+      <c r="B123">
         <f t="shared" si="12"/>
         <v>117</v>
       </c>
@@ -5301,7 +5422,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <f t="shared" si="14"/>
         <v>1226.1344188717551</v>
       </c>
@@ -5315,7 +5436,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B124" s="3">
+      <c r="B124">
         <f t="shared" si="12"/>
         <v>118</v>
       </c>
@@ -5327,7 +5448,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <f t="shared" si="14"/>
         <v>1222.0792387662439</v>
       </c>
@@ -5341,7 +5462,7 @@
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B125" s="3">
+      <c r="B125">
         <f t="shared" si="12"/>
         <v>119</v>
       </c>
@@ -5353,7 +5474,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <f t="shared" si="14"/>
         <v>1217.997024126696</v>
       </c>
@@ -5367,33 +5488,33 @@
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="5">
         <f t="shared" si="17"/>
         <v>182083.13920843264</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="5">
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="6">
         <f t="shared" si="14"/>
         <v>1213.8875947228844</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="5">
         <f t="shared" si="15"/>
         <v>620.52383997555626</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="5">
         <f t="shared" si="16"/>
         <v>181462.61536845707</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B127" s="3">
+      <c r="B127">
         <f t="shared" si="12"/>
         <v>121</v>
       </c>
@@ -5405,7 +5526,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <f t="shared" si="14"/>
         <v>1209.7507691230473</v>
       </c>
@@ -5419,7 +5540,7 @@
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B128" s="3">
+      <c r="B128">
         <f t="shared" si="12"/>
         <v>122</v>
       </c>
@@ -5431,7 +5552,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <f t="shared" si="14"/>
         <v>1205.5863646858779</v>
       </c>
@@ -5445,7 +5566,7 @@
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="3">
+      <c r="B129">
         <f t="shared" si="12"/>
         <v>123</v>
       </c>
@@ -5457,7 +5578,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <f t="shared" si="14"/>
         <v>1201.3941975524608</v>
       </c>
@@ -5471,7 +5592,7 @@
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="3">
+      <c r="B130">
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
@@ -5483,7 +5604,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="3">
         <f t="shared" si="14"/>
         <v>1197.1740826381545</v>
       </c>
@@ -5497,7 +5618,7 @@
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="3">
+      <c r="B131">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
@@ -5509,7 +5630,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="3">
         <f t="shared" si="14"/>
         <v>1192.9258336244191</v>
       </c>
@@ -5523,7 +5644,7 @@
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="3">
+      <c r="B132">
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
@@ -5535,7 +5656,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="3">
         <f t="shared" si="14"/>
         <v>1188.6492629505922</v>
       </c>
@@ -5549,7 +5670,7 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="3">
+      <c r="B133">
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
@@ -5561,7 +5682,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="3">
         <f t="shared" si="14"/>
         <v>1184.3441818056065</v>
       </c>
@@ -5575,7 +5696,7 @@
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="3">
+      <c r="B134">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
@@ -5587,7 +5708,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="3">
         <f t="shared" si="14"/>
         <v>1180.0104001196542</v>
       </c>
@@ -5601,7 +5722,7 @@
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="3">
+      <c r="B135">
         <f t="shared" si="12"/>
         <v>129</v>
       </c>
@@ -5613,7 +5734,7 @@
         <f t="shared" si="13"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="3">
         <f t="shared" si="14"/>
         <v>1175.6477265557955</v>
       </c>
@@ -5627,7 +5748,7 @@
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="3">
+      <c r="B136">
         <f t="shared" ref="B136:B199" si="18">(B135+1)</f>
         <v>130</v>
       </c>
@@ -5639,7 +5760,7 @@
         <f t="shared" ref="D136:D199" si="19">$C$4</f>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="3">
         <f t="shared" ref="E136:E199" si="20">C136*(C$2/12)</f>
         <v>1171.2559685015112</v>
       </c>
@@ -5653,7 +5774,7 @@
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" s="3">
+      <c r="B137">
         <f t="shared" si="18"/>
         <v>131</v>
       </c>
@@ -5665,7 +5786,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="3">
         <f t="shared" si="20"/>
         <v>1166.8349320601983</v>
       </c>
@@ -5679,7 +5800,7 @@
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138" s="3">
+      <c r="B138">
         <f t="shared" si="18"/>
         <v>132</v>
       </c>
@@ -5691,7 +5812,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="3">
         <f t="shared" si="20"/>
         <v>1162.3844220426101</v>
       </c>
@@ -5705,7 +5826,7 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="3">
+      <c r="B139">
         <f t="shared" si="18"/>
         <v>133</v>
       </c>
@@ -5717,7 +5838,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <f t="shared" si="20"/>
         <v>1157.9042419582379</v>
       </c>
@@ -5731,7 +5852,7 @@
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B140" s="3">
+      <c r="B140">
         <f t="shared" si="18"/>
         <v>134</v>
       </c>
@@ -5743,7 +5864,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <f t="shared" si="20"/>
         <v>1153.3941940066366</v>
       </c>
@@ -5757,7 +5878,7 @@
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="3">
+      <c r="B141">
         <f t="shared" si="18"/>
         <v>135</v>
       </c>
@@ -5769,7 +5890,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <f t="shared" si="20"/>
         <v>1148.8540790686911</v>
       </c>
@@ -5783,7 +5904,7 @@
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142" s="3">
+      <c r="B142">
         <f t="shared" si="18"/>
         <v>136</v>
       </c>
@@ -5795,7 +5916,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="3">
         <f t="shared" si="20"/>
         <v>1144.2836966978261</v>
       </c>
@@ -5809,7 +5930,7 @@
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" s="3">
+      <c r="B143">
         <f t="shared" si="18"/>
         <v>137</v>
       </c>
@@ -5821,7 +5942,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="3">
         <f t="shared" si="20"/>
         <v>1139.6828451111553</v>
       </c>
@@ -5835,7 +5956,7 @@
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B144" s="3">
+      <c r="B144">
         <f t="shared" si="18"/>
         <v>138</v>
       </c>
@@ -5847,7 +5968,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="3">
         <f t="shared" si="20"/>
         <v>1135.0513211805733</v>
       </c>
@@ -5861,7 +5982,7 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145" s="3">
+      <c r="B145">
         <f t="shared" si="18"/>
         <v>139</v>
       </c>
@@ -5873,7 +5994,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="3">
         <f t="shared" si="20"/>
         <v>1130.3889204237876</v>
       </c>
@@ -5887,7 +6008,7 @@
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B146" s="3">
+      <c r="B146">
         <f t="shared" si="18"/>
         <v>140</v>
       </c>
@@ -5899,7 +6020,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="3">
         <f t="shared" si="20"/>
         <v>1125.6954369952898</v>
       </c>
@@ -5913,7 +6034,7 @@
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B147" s="3">
+      <c r="B147">
         <f t="shared" si="18"/>
         <v>141</v>
       </c>
@@ -5925,7 +6046,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="3">
         <f t="shared" si="20"/>
         <v>1120.9706636772687</v>
       </c>
@@ -5939,7 +6060,7 @@
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B148" s="3">
+      <c r="B148">
         <f t="shared" si="18"/>
         <v>142</v>
       </c>
@@ -5951,7 +6072,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="3">
         <f t="shared" si="20"/>
         <v>1116.214391870461</v>
       </c>
@@ -5965,7 +6086,7 @@
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B149" s="3">
+      <c r="B149">
         <f t="shared" si="18"/>
         <v>143</v>
       </c>
@@ -5977,7 +6098,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="3">
         <f t="shared" si="20"/>
         <v>1111.426411584941</v>
       </c>
@@ -5991,7 +6112,7 @@
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B150" s="3">
+      <c r="B150">
         <f t="shared" si="18"/>
         <v>144</v>
       </c>
@@ -6003,7 +6124,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="3">
         <f t="shared" si="20"/>
         <v>1106.606511430851</v>
       </c>
@@ -6017,7 +6138,7 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151" s="3">
+      <c r="B151">
         <f t="shared" si="18"/>
         <v>145</v>
       </c>
@@ -6029,7 +6150,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="3">
         <f t="shared" si="20"/>
         <v>1101.7544786090671</v>
       </c>
@@ -6043,7 +6164,7 @@
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B152" s="3">
+      <c r="B152">
         <f t="shared" si="18"/>
         <v>146</v>
       </c>
@@ -6055,7 +6176,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="3">
         <f t="shared" si="20"/>
         <v>1096.8700989018046</v>
       </c>
@@ -6069,7 +6190,7 @@
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B153" s="3">
+      <c r="B153">
         <f t="shared" si="18"/>
         <v>147</v>
       </c>
@@ -6081,7 +6202,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="3">
         <f t="shared" si="20"/>
         <v>1091.9531566631604</v>
       </c>
@@ -6095,7 +6216,7 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B154" s="3">
+      <c r="B154">
         <f t="shared" si="18"/>
         <v>148</v>
       </c>
@@ -6107,7 +6228,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="3">
         <f t="shared" si="20"/>
         <v>1087.0034348095917</v>
       </c>
@@ -6121,7 +6242,7 @@
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B155" s="3">
+      <c r="B155">
         <f t="shared" si="18"/>
         <v>149</v>
       </c>
@@ -6133,7 +6254,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="3">
         <f t="shared" si="20"/>
         <v>1082.0207148103327</v>
       </c>
@@ -6147,7 +6268,7 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B156" s="3">
+      <c r="B156">
         <f t="shared" si="18"/>
         <v>150</v>
       </c>
@@ -6159,7 +6280,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="3">
         <f t="shared" si="20"/>
         <v>1077.0047766777452</v>
       </c>
@@ -6173,7 +6294,7 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B157" s="3">
+      <c r="B157">
         <f t="shared" si="18"/>
         <v>151</v>
       </c>
@@ -6185,7 +6306,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="3">
         <f t="shared" si="20"/>
         <v>1071.9553989576073</v>
       </c>
@@ -6199,7 +6320,7 @@
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B158" s="3">
+      <c r="B158">
         <f t="shared" si="18"/>
         <v>152</v>
       </c>
@@ -6211,7 +6332,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="3">
         <f t="shared" si="20"/>
         <v>1066.8723587193354</v>
       </c>
@@ -6225,7 +6346,7 @@
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B159" s="3">
+      <c r="B159">
         <f t="shared" si="18"/>
         <v>153</v>
       </c>
@@ -6237,7 +6358,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="3">
         <f t="shared" si="20"/>
         <v>1061.7554315461412</v>
       </c>
@@ -6251,7 +6372,7 @@
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B160" s="3">
+      <c r="B160">
         <f t="shared" si="18"/>
         <v>154</v>
       </c>
@@ -6263,7 +6384,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="3">
         <f t="shared" si="20"/>
         <v>1056.6043915251257</v>
       </c>
@@ -6277,7 +6398,7 @@
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B161" s="3">
+      <c r="B161">
         <f t="shared" si="18"/>
         <v>155</v>
       </c>
@@ -6289,7 +6410,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="3">
         <f t="shared" si="20"/>
         <v>1051.4190112373035</v>
       </c>
@@ -6303,7 +6424,7 @@
       </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B162" s="3">
+      <c r="B162">
         <f t="shared" si="18"/>
         <v>156</v>
       </c>
@@ -6315,7 +6436,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="3">
         <f t="shared" si="20"/>
         <v>1046.1990617475626</v>
       </c>
@@ -6329,7 +6450,7 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B163" s="3">
+      <c r="B163">
         <f t="shared" si="18"/>
         <v>157</v>
       </c>
@@ -6341,7 +6462,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="3">
         <f t="shared" si="20"/>
         <v>1040.9443125945568</v>
       </c>
@@ -6355,7 +6476,7 @@
       </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B164" s="3">
+      <c r="B164">
         <f t="shared" si="18"/>
         <v>158</v>
       </c>
@@ -6367,7 +6488,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="3">
         <f t="shared" si="20"/>
         <v>1035.654531780531</v>
       </c>
@@ -6381,7 +6502,7 @@
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B165" s="3">
+      <c r="B165">
         <f t="shared" si="18"/>
         <v>159</v>
       </c>
@@ -6393,7 +6514,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="3">
         <f t="shared" si="20"/>
         <v>1030.3294857610783</v>
       </c>
@@ -6407,7 +6528,7 @@
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B166" s="3">
+      <c r="B166">
         <f t="shared" si="18"/>
         <v>160</v>
       </c>
@@ -6419,7 +6540,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="3">
         <f t="shared" si="20"/>
         <v>1024.9689394348293</v>
       </c>
@@ -6433,7 +6554,7 @@
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B167" s="3">
+      <c r="B167">
         <f t="shared" si="18"/>
         <v>161</v>
       </c>
@@ -6445,7 +6566,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="3">
         <f t="shared" si="20"/>
         <v>1019.5726561330717</v>
       </c>
@@ -6459,7 +6580,7 @@
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B168" s="3">
+      <c r="B168">
         <f t="shared" si="18"/>
         <v>162</v>
       </c>
@@ -6471,7 +6592,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="3">
         <f t="shared" si="20"/>
         <v>1014.1403976093026</v>
       </c>
@@ -6485,7 +6606,7 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B169" s="3">
+      <c r="B169">
         <f t="shared" si="18"/>
         <v>163</v>
       </c>
@@ -6497,7 +6618,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="3">
         <f t="shared" si="20"/>
         <v>1008.6719240287083</v>
       </c>
@@ -6511,7 +6632,7 @@
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B170" s="3">
+      <c r="B170">
         <f t="shared" si="18"/>
         <v>164</v>
       </c>
@@ -6523,7 +6644,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="3">
         <f t="shared" si="20"/>
         <v>1003.1669939575768</v>
       </c>
@@ -6537,7 +6658,7 @@
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B171" s="3">
+      <c r="B171">
         <f t="shared" si="18"/>
         <v>165</v>
       </c>
@@ -6549,7 +6670,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="3">
         <f t="shared" si="20"/>
         <v>997.62536435263758</v>
       </c>
@@ -6563,7 +6684,7 @@
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B172" s="3">
+      <c r="B172">
         <f t="shared" si="18"/>
         <v>166</v>
       </c>
@@ -6575,7 +6696,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="3">
         <f t="shared" si="20"/>
         <v>992.04679055033216</v>
       </c>
@@ -6589,7 +6710,7 @@
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B173" s="3">
+      <c r="B173">
         <f t="shared" si="18"/>
         <v>167</v>
       </c>
@@ -6601,7 +6722,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="3">
         <f t="shared" si="20"/>
         <v>986.43102625601159</v>
       </c>
@@ -6615,7 +6736,7 @@
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B174" s="3">
+      <c r="B174">
         <f t="shared" si="18"/>
         <v>168</v>
       </c>
@@ -6627,7 +6748,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <f t="shared" si="20"/>
         <v>980.77782353306191</v>
       </c>
@@ -6641,7 +6762,7 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B175" s="3">
+      <c r="B175">
         <f t="shared" si="18"/>
         <v>169</v>
       </c>
@@ -6653,7 +6774,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="3">
         <f t="shared" si="20"/>
         <v>975.0869327919595</v>
       </c>
@@ -6667,7 +6788,7 @@
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B176" s="3">
+      <c r="B176">
         <f t="shared" si="18"/>
         <v>170</v>
       </c>
@@ -6679,7 +6800,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="3">
         <f t="shared" si="20"/>
         <v>969.35810277924952</v>
       </c>
@@ -6693,7 +6814,7 @@
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B177" s="3">
+      <c r="B177">
         <f t="shared" si="18"/>
         <v>171</v>
       </c>
@@ -6705,7 +6826,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="3">
         <f t="shared" si="20"/>
         <v>963.59108056645493</v>
       </c>
@@ -6719,7 +6840,7 @@
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B178" s="3">
+      <c r="B178">
         <f t="shared" si="18"/>
         <v>172</v>
       </c>
@@ -6731,7 +6852,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="3">
         <f t="shared" si="20"/>
         <v>957.78561153890848</v>
       </c>
@@ -6745,7 +6866,7 @@
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B179" s="3">
+      <c r="B179">
         <f t="shared" si="18"/>
         <v>173</v>
       </c>
@@ -6757,7 +6878,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="3">
         <f t="shared" si="20"/>
         <v>951.94143938451157</v>
       </c>
@@ -6771,7 +6892,7 @@
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B180" s="3">
+      <c r="B180">
         <f t="shared" si="18"/>
         <v>174</v>
       </c>
@@ -6783,7 +6904,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="3">
         <f t="shared" si="20"/>
         <v>946.05830608241865</v>
       </c>
@@ -6797,7 +6918,7 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B181" s="3">
+      <c r="B181">
         <f t="shared" si="18"/>
         <v>175</v>
       </c>
@@ -6809,7 +6930,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="3">
         <f t="shared" si="20"/>
         <v>940.13595189164516</v>
       </c>
@@ -6823,7 +6944,7 @@
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B182" s="3">
+      <c r="B182">
         <f t="shared" si="18"/>
         <v>176</v>
       </c>
@@ -6835,7 +6956,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="3">
         <f t="shared" si="20"/>
         <v>934.17411533959989</v>
       </c>
@@ -6849,7 +6970,7 @@
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B183" s="3">
+      <c r="B183">
         <f t="shared" si="18"/>
         <v>177</v>
       </c>
@@ -6861,7 +6982,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="3">
         <f t="shared" si="20"/>
         <v>928.17253321054102</v>
       </c>
@@ -6875,7 +6996,7 @@
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B184" s="3">
+      <c r="B184">
         <f t="shared" si="18"/>
         <v>178</v>
       </c>
@@ -6887,7 +7008,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="3">
         <f t="shared" si="20"/>
         <v>922.13094053395503</v>
       </c>
@@ -6901,7 +7022,7 @@
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B185" s="3">
+      <c r="B185">
         <f t="shared" si="18"/>
         <v>179</v>
       </c>
@@ -6913,7 +7034,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="3">
         <f t="shared" si="20"/>
         <v>916.04907057285857</v>
       </c>
@@ -6927,33 +7048,33 @@
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <f t="shared" si="18"/>
         <v>180</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="5">
         <f t="shared" si="23"/>
         <v>136488.99822180319</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="5">
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="6">
         <f t="shared" si="20"/>
         <v>909.92665481202141</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F186" s="5">
         <f t="shared" si="21"/>
         <v>924.48477988641923</v>
       </c>
-      <c r="G186" s="6">
+      <c r="G186" s="5">
         <f t="shared" si="22"/>
         <v>135564.51344191679</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B187" s="3">
+      <c r="B187">
         <f t="shared" si="18"/>
         <v>181</v>
       </c>
@@ -6965,7 +7086,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187" s="3">
         <f t="shared" si="20"/>
         <v>903.76342294611197</v>
       </c>
@@ -6979,7 +7100,7 @@
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B188" s="3">
+      <c r="B188">
         <f t="shared" si="18"/>
         <v>182</v>
       </c>
@@ -6991,7 +7112,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="3">
         <f t="shared" si="20"/>
         <v>897.55910286776316</v>
       </c>
@@ -7005,7 +7126,7 @@
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B189" s="3">
+      <c r="B189">
         <f t="shared" si="18"/>
         <v>183</v>
       </c>
@@ -7017,7 +7138,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="3">
         <f t="shared" si="20"/>
         <v>891.31342065555862</v>
       </c>
@@ -7031,7 +7152,7 @@
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B190" s="3">
+      <c r="B190">
         <f t="shared" si="18"/>
         <v>184</v>
       </c>
@@ -7043,7 +7164,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190" s="3">
         <f t="shared" si="20"/>
         <v>885.02610056193942</v>
       </c>
@@ -7057,7 +7178,7 @@
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B191" s="3">
+      <c r="B191">
         <f t="shared" si="18"/>
         <v>185</v>
       </c>
@@ -7069,7 +7190,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="3">
         <f t="shared" si="20"/>
         <v>878.69686500102944</v>
       </c>
@@ -7083,7 +7204,7 @@
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B192" s="3">
+      <c r="B192">
         <f t="shared" si="18"/>
         <v>186</v>
       </c>
@@ -7095,7 +7216,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="3">
         <f t="shared" si="20"/>
         <v>872.32543453638004</v>
       </c>
@@ -7109,7 +7230,7 @@
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B193" s="3">
+      <c r="B193">
         <f t="shared" si="18"/>
         <v>187</v>
       </c>
@@ -7121,7 +7242,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="3">
         <f t="shared" si="20"/>
         <v>865.9115278686329</v>
       </c>
@@ -7135,7 +7256,7 @@
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B194" s="3">
+      <c r="B194">
         <f t="shared" si="18"/>
         <v>188</v>
       </c>
@@ -7147,7 +7268,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="3">
         <f t="shared" si="20"/>
         <v>859.45486182310094</v>
       </c>
@@ -7161,7 +7282,7 @@
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B195" s="3">
+      <c r="B195">
         <f t="shared" si="18"/>
         <v>189</v>
       </c>
@@ -7173,7 +7294,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195" s="3">
         <f t="shared" si="20"/>
         <v>852.95515133726531</v>
       </c>
@@ -7187,7 +7308,7 @@
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B196" s="3">
+      <c r="B196">
         <f t="shared" si="18"/>
         <v>190</v>
       </c>
@@ -7199,7 +7320,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="3">
         <f t="shared" si="20"/>
         <v>846.4121094481909</v>
       </c>
@@ -7213,7 +7334,7 @@
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B197" s="3">
+      <c r="B197">
         <f t="shared" si="18"/>
         <v>191</v>
       </c>
@@ -7225,7 +7346,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="3">
         <f t="shared" si="20"/>
         <v>839.82544727985589</v>
       </c>
@@ -7239,7 +7360,7 @@
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B198" s="3">
+      <c r="B198">
         <f t="shared" si="18"/>
         <v>192</v>
       </c>
@@ -7251,7 +7372,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="3">
         <f t="shared" si="20"/>
         <v>833.19487403039864</v>
       </c>
@@ -7265,7 +7386,7 @@
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B199" s="3">
+      <c r="B199">
         <f t="shared" si="18"/>
         <v>193</v>
       </c>
@@ -7277,7 +7398,7 @@
         <f t="shared" si="19"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="3">
         <f t="shared" si="20"/>
         <v>826.52009695927836</v>
       </c>
@@ -7291,7 +7412,7 @@
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B200" s="3">
+      <c r="B200">
         <f t="shared" ref="B200:B263" si="24">(B199+1)</f>
         <v>194</v>
       </c>
@@ -7303,7 +7424,7 @@
         <f t="shared" ref="D200:D263" si="25">$C$4</f>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="3">
         <f t="shared" ref="E200:E263" si="26">C200*(C$2/12)</f>
         <v>819.80082137435068</v>
       </c>
@@ -7317,7 +7438,7 @@
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B201" s="3">
+      <c r="B201">
         <f t="shared" si="24"/>
         <v>195</v>
       </c>
@@ -7329,7 +7450,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="3">
         <f t="shared" si="26"/>
         <v>813.03675061885679</v>
       </c>
@@ -7343,7 +7464,7 @@
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B202" s="3">
+      <c r="B202">
         <f t="shared" si="24"/>
         <v>196</v>
       </c>
@@ -7355,7 +7476,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202" s="3">
         <f t="shared" si="26"/>
         <v>806.22758605832632</v>
       </c>
@@ -7369,7 +7490,7 @@
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B203" s="3">
+      <c r="B203">
         <f t="shared" si="24"/>
         <v>197</v>
       </c>
@@ -7381,7 +7502,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="3">
         <f t="shared" si="26"/>
         <v>799.37302706739217</v>
       </c>
@@ -7395,7 +7516,7 @@
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B204" s="3">
+      <c r="B204">
         <f t="shared" si="24"/>
         <v>198</v>
       </c>
@@ -7407,7 +7528,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="3">
         <f t="shared" si="26"/>
         <v>792.47277101651855</v>
       </c>
@@ -7421,7 +7542,7 @@
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B205" s="3">
+      <c r="B205">
         <f t="shared" si="24"/>
         <v>199</v>
       </c>
@@ -7433,7 +7554,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="3">
         <f t="shared" si="26"/>
         <v>785.52651325863906</v>
       </c>
@@ -7447,7 +7568,7 @@
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B206" s="3">
+      <c r="B206">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
@@ -7459,7 +7580,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="3">
         <f t="shared" si="26"/>
         <v>778.53394711570706</v>
       </c>
@@ -7473,7 +7594,7 @@
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B207" s="3">
+      <c r="B207">
         <f t="shared" si="24"/>
         <v>201</v>
       </c>
@@ -7485,7 +7606,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="3">
         <f t="shared" si="26"/>
         <v>771.49476386515551</v>
       </c>
@@ -7499,7 +7620,7 @@
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B208" s="3">
+      <c r="B208">
         <f t="shared" si="24"/>
         <v>202</v>
       </c>
@@ -7511,7 +7632,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208" s="3">
         <f t="shared" si="26"/>
         <v>764.40865272626695</v>
       </c>
@@ -7525,7 +7646,7 @@
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B209" s="3">
+      <c r="B209">
         <f t="shared" si="24"/>
         <v>203</v>
       </c>
@@ -7537,7 +7658,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E209" s="3">
         <f t="shared" si="26"/>
         <v>757.27530084645241</v>
       </c>
@@ -7551,7 +7672,7 @@
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B210" s="3">
+      <c r="B210">
         <f t="shared" si="24"/>
         <v>204</v>
       </c>
@@ -7563,7 +7684,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E210" s="3">
         <f t="shared" si="26"/>
         <v>750.09439328743917</v>
       </c>
@@ -7577,7 +7698,7 @@
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B211" s="3">
+      <c r="B211">
         <f t="shared" si="24"/>
         <v>205</v>
       </c>
@@ -7589,7 +7710,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="3">
         <f t="shared" si="26"/>
         <v>742.86561301136578</v>
       </c>
@@ -7603,7 +7724,7 @@
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B212" s="3">
+      <c r="B212">
         <f t="shared" si="24"/>
         <v>206</v>
       </c>
@@ -7615,7 +7736,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212" s="3">
         <f t="shared" si="26"/>
         <v>735.58864086678523</v>
       </c>
@@ -7629,7 +7750,7 @@
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B213" s="3">
+      <c r="B213">
         <f t="shared" si="24"/>
         <v>207</v>
       </c>
@@ -7641,7 +7762,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213" s="3">
         <f t="shared" si="26"/>
         <v>728.26315557457428</v>
       </c>
@@ -7655,7 +7776,7 @@
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B214" s="3">
+      <c r="B214">
         <f t="shared" si="24"/>
         <v>208</v>
       </c>
@@ -7667,7 +7788,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E214" s="3">
         <f t="shared" si="26"/>
         <v>720.88883371374845</v>
       </c>
@@ -7681,7 +7802,7 @@
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B215" s="3">
+      <c r="B215">
         <f t="shared" si="24"/>
         <v>209</v>
       </c>
@@ -7693,7 +7814,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E215" s="4">
+      <c r="E215" s="3">
         <f t="shared" si="26"/>
         <v>713.4653497071838</v>
       </c>
@@ -7707,7 +7828,7 @@
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B216" s="3">
+      <c r="B216">
         <f t="shared" si="24"/>
         <v>210</v>
       </c>
@@ -7719,7 +7840,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E216" s="4">
+      <c r="E216" s="3">
         <f t="shared" si="26"/>
         <v>705.99237580724207</v>
       </c>
@@ -7733,7 +7854,7 @@
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B217" s="3">
+      <c r="B217">
         <f t="shared" si="24"/>
         <v>211</v>
       </c>
@@ -7745,7 +7866,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E217" s="4">
+      <c r="E217" s="3">
         <f t="shared" si="26"/>
         <v>698.4695820813007</v>
       </c>
@@ -7759,7 +7880,7 @@
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B218" s="3">
+      <c r="B218">
         <f t="shared" si="24"/>
         <v>212</v>
       </c>
@@ -7771,7 +7892,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218" s="3">
         <f t="shared" si="26"/>
         <v>690.89663639718651</v>
       </c>
@@ -7785,7 +7906,7 @@
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B219" s="3">
+      <c r="B219">
         <f t="shared" si="24"/>
         <v>213</v>
       </c>
@@ -7797,7 +7918,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E219" s="4">
+      <c r="E219" s="3">
         <f t="shared" si="26"/>
         <v>683.27320440851145</v>
       </c>
@@ -7811,7 +7932,7 @@
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B220" s="3">
+      <c r="B220">
         <f t="shared" si="24"/>
         <v>214</v>
       </c>
@@ -7823,7 +7944,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E220" s="4">
+      <c r="E220" s="3">
         <f t="shared" si="26"/>
         <v>675.59894953991193</v>
       </c>
@@ -7837,7 +7958,7 @@
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B221" s="3">
+      <c r="B221">
         <f t="shared" si="24"/>
         <v>215</v>
       </c>
@@ -7849,7 +7970,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E221" s="3">
         <f t="shared" si="26"/>
         <v>667.8735329721884</v>
       </c>
@@ -7863,7 +7984,7 @@
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B222" s="3">
+      <c r="B222">
         <f t="shared" si="24"/>
         <v>216</v>
       </c>
@@ -7875,7 +7996,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222" s="3">
         <f t="shared" si="26"/>
         <v>660.09661362734676</v>
       </c>
@@ -7889,7 +8010,7 @@
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B223" s="3">
+      <c r="B223">
         <f t="shared" si="24"/>
         <v>217</v>
       </c>
@@ -7901,7 +8022,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E223" s="4">
+      <c r="E223" s="3">
         <f t="shared" si="26"/>
         <v>652.26784815353949</v>
       </c>
@@ -7915,7 +8036,7 @@
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B224" s="3">
+      <c r="B224">
         <f t="shared" si="24"/>
         <v>218</v>
       </c>
@@ -7927,7 +8048,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E224" s="4">
+      <c r="E224" s="3">
         <f t="shared" si="26"/>
         <v>644.38689090990681</v>
       </c>
@@ -7941,7 +8062,7 @@
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B225" s="3">
+      <c r="B225">
         <f t="shared" si="24"/>
         <v>219</v>
       </c>
@@ -7953,7 +8074,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E225" s="4">
+      <c r="E225" s="3">
         <f t="shared" si="26"/>
         <v>636.45339395131657</v>
       </c>
@@ -7967,7 +8088,7 @@
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B226" s="3">
+      <c r="B226">
         <f t="shared" si="24"/>
         <v>220</v>
       </c>
@@ -7979,7 +8100,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E226" s="3">
         <f t="shared" si="26"/>
         <v>628.46700701300244</v>
       </c>
@@ -7993,7 +8114,7 @@
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B227" s="3">
+      <c r="B227">
         <f t="shared" si="24"/>
         <v>221</v>
       </c>
@@ -8005,7 +8126,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E227" s="4">
+      <c r="E227" s="3">
         <f t="shared" si="26"/>
         <v>620.42737749509956</v>
       </c>
@@ -8019,7 +8140,7 @@
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B228" s="3">
+      <c r="B228">
         <f t="shared" si="24"/>
         <v>222</v>
       </c>
@@ -8031,7 +8152,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E228" s="4">
+      <c r="E228" s="3">
         <f t="shared" si="26"/>
         <v>612.33415044707726</v>
       </c>
@@ -8045,7 +8166,7 @@
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B229" s="3">
+      <c r="B229">
         <f t="shared" si="24"/>
         <v>223</v>
       </c>
@@ -8057,7 +8178,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E229" s="4">
+      <c r="E229" s="3">
         <f t="shared" si="26"/>
         <v>604.18696855206815</v>
       </c>
@@ -8071,7 +8192,7 @@
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B230" s="3">
+      <c r="B230">
         <f t="shared" si="24"/>
         <v>224</v>
       </c>
@@ -8083,7 +8204,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E230" s="4">
+      <c r="E230" s="3">
         <f t="shared" si="26"/>
         <v>595.98547211109224</v>
       </c>
@@ -8097,7 +8218,7 @@
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B231" s="3">
+      <c r="B231">
         <f t="shared" si="24"/>
         <v>225</v>
       </c>
@@ -8109,7 +8230,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E231" s="4">
+      <c r="E231" s="3">
         <f t="shared" si="26"/>
         <v>587.72929902717658</v>
       </c>
@@ -8123,7 +8244,7 @@
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B232" s="3">
+      <c r="B232">
         <f t="shared" si="24"/>
         <v>226</v>
       </c>
@@ -8135,7 +8256,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E232" s="3">
         <f t="shared" si="26"/>
         <v>579.41808478936821</v>
       </c>
@@ -8149,7 +8270,7 @@
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B233" s="3">
+      <c r="B233">
         <f t="shared" si="24"/>
         <v>227</v>
       </c>
@@ -8161,7 +8282,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E233" s="3">
         <f t="shared" si="26"/>
         <v>571.05146245664105</v>
       </c>
@@ -8175,7 +8296,7 @@
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B234" s="3">
+      <c r="B234">
         <f t="shared" si="24"/>
         <v>228</v>
       </c>
@@ -8187,7 +8308,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E234" s="4">
+      <c r="E234" s="3">
         <f t="shared" si="26"/>
         <v>562.62906264169567</v>
       </c>
@@ -8201,7 +8322,7 @@
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B235" s="3">
+      <c r="B235">
         <f t="shared" si="24"/>
         <v>229</v>
       </c>
@@ -8213,7 +8334,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E235" s="4">
+      <c r="E235" s="3">
         <f t="shared" si="26"/>
         <v>554.1505134946508</v>
       </c>
@@ -8227,7 +8348,7 @@
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B236" s="3">
+      <c r="B236">
         <f t="shared" si="24"/>
         <v>230</v>
       </c>
@@ -8239,7 +8360,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236" s="3">
         <f t="shared" si="26"/>
         <v>545.61544068662545</v>
       </c>
@@ -8253,7 +8374,7 @@
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B237" s="3">
+      <c r="B237">
         <f t="shared" si="24"/>
         <v>231</v>
       </c>
@@ -8265,7 +8386,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E237" s="3">
         <f t="shared" si="26"/>
         <v>537.02346739321342</v>
       </c>
@@ -8279,7 +8400,7 @@
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B238" s="3">
+      <c r="B238">
         <f t="shared" si="24"/>
         <v>232</v>
       </c>
@@ -8291,7 +8412,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E238" s="3">
         <f t="shared" si="26"/>
         <v>528.37421427784523</v>
       </c>
@@ -8305,7 +8426,7 @@
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B239" s="3">
+      <c r="B239">
         <f t="shared" si="24"/>
         <v>233</v>
       </c>
@@ -8317,7 +8438,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E239" s="3">
         <f t="shared" si="26"/>
         <v>519.6672994750412</v>
       </c>
@@ -8331,7 +8452,7 @@
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B240" s="3">
+      <c r="B240">
         <f t="shared" si="24"/>
         <v>234</v>
       </c>
@@ -8343,7 +8464,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240" s="3">
         <f t="shared" si="26"/>
         <v>510.9023385735519</v>
       </c>
@@ -8357,7 +8478,7 @@
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B241" s="3">
+      <c r="B241">
         <f t="shared" si="24"/>
         <v>235</v>
       </c>
@@ -8369,7 +8490,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241" s="3">
         <f t="shared" si="26"/>
         <v>502.07894459938598</v>
       </c>
@@ -8383,7 +8504,7 @@
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B242" s="3">
+      <c r="B242">
         <f t="shared" si="24"/>
         <v>236</v>
       </c>
@@ -8395,7 +8516,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E242" s="4">
+      <c r="E242" s="3">
         <f t="shared" si="26"/>
         <v>493.19672799872558</v>
       </c>
@@ -8409,7 +8530,7 @@
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B243" s="3">
+      <c r="B243">
         <f t="shared" si="24"/>
         <v>237</v>
       </c>
@@ -8421,7 +8542,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243" s="3">
         <f t="shared" si="26"/>
         <v>484.25529662072751</v>
       </c>
@@ -8435,7 +8556,7 @@
       </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B244" s="3">
+      <c r="B244">
         <f t="shared" si="24"/>
         <v>238</v>
       </c>
@@ -8447,7 +8568,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E244" s="4">
+      <c r="E244" s="3">
         <f t="shared" si="26"/>
         <v>475.2542557002094</v>
       </c>
@@ -8461,7 +8582,7 @@
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B245" s="3">
+      <c r="B245">
         <f t="shared" si="24"/>
         <v>239</v>
       </c>
@@ -8473,7 +8594,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E245" s="4">
+      <c r="E245" s="3">
         <f t="shared" si="26"/>
         <v>466.19320784022125</v>
       </c>
@@ -8487,33 +8608,33 @@
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <f t="shared" si="24"/>
         <v>240</v>
       </c>
-      <c r="C246" s="6">
+      <c r="C246" s="5">
         <f t="shared" si="29"/>
         <v>68560.762949174954</v>
       </c>
-      <c r="D246" s="6">
+      <c r="D246" s="5">
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E246" s="7">
+      <c r="E246" s="6">
         <f t="shared" si="26"/>
         <v>457.07175299449972</v>
       </c>
-      <c r="F246" s="6">
+      <c r="F246" s="5">
         <f t="shared" si="27"/>
         <v>1377.3396817039409</v>
       </c>
-      <c r="G246" s="6">
+      <c r="G246" s="5">
         <f t="shared" si="28"/>
         <v>67183.423267471007</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B247" s="3">
+      <c r="B247">
         <f t="shared" si="24"/>
         <v>241</v>
       </c>
@@ -8525,7 +8646,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247" s="3">
         <f t="shared" si="26"/>
         <v>447.88948844980672</v>
       </c>
@@ -8539,7 +8660,7 @@
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B248" s="3">
+      <c r="B248">
         <f t="shared" si="24"/>
         <v>242</v>
       </c>
@@ -8551,7 +8672,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248" s="3">
         <f t="shared" si="26"/>
         <v>438.64600880814925</v>
       </c>
@@ -8565,7 +8686,7 @@
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B249" s="3">
+      <c r="B249">
         <f t="shared" si="24"/>
         <v>243</v>
       </c>
@@ -8577,7 +8698,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249" s="3">
         <f t="shared" si="26"/>
         <v>429.34090596888063</v>
       </c>
@@ -8591,7 +8712,7 @@
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B250" s="3">
+      <c r="B250">
         <f t="shared" si="24"/>
         <v>244</v>
       </c>
@@ -8603,7 +8724,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E250" s="4">
+      <c r="E250" s="3">
         <f t="shared" si="26"/>
         <v>419.97376911068358</v>
       </c>
@@ -8617,7 +8738,7 @@
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B251" s="3">
+      <c r="B251">
         <f t="shared" si="24"/>
         <v>245</v>
       </c>
@@ -8629,7 +8750,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251" s="3">
         <f t="shared" si="26"/>
         <v>410.54418467343186</v>
       </c>
@@ -8643,7 +8764,7 @@
       </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B252" s="3">
+      <c r="B252">
         <f t="shared" si="24"/>
         <v>246</v>
       </c>
@@ -8655,7 +8776,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E252" s="4">
+      <c r="E252" s="3">
         <f t="shared" si="26"/>
         <v>401.05173633993178</v>
       </c>
@@ -8669,7 +8790,7 @@
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B253" s="3">
+      <c r="B253">
         <f t="shared" si="24"/>
         <v>247</v>
       </c>
@@ -8681,7 +8802,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E253" s="4">
+      <c r="E253" s="3">
         <f t="shared" si="26"/>
         <v>391.49600501754173</v>
       </c>
@@ -8695,7 +8816,7 @@
       </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B254" s="3">
+      <c r="B254">
         <f t="shared" si="24"/>
         <v>248</v>
       </c>
@@ -8707,7 +8828,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E254" s="4">
+      <c r="E254" s="3">
         <f t="shared" si="26"/>
         <v>381.87656881966905</v>
       </c>
@@ -8721,7 +8842,7 @@
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B255" s="3">
+      <c r="B255">
         <f t="shared" si="24"/>
         <v>249</v>
       </c>
@@ -8733,7 +8854,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E255" s="4">
+      <c r="E255" s="3">
         <f t="shared" si="26"/>
         <v>372.19300304714392</v>
       </c>
@@ -8747,7 +8868,7 @@
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B256" s="3">
+      <c r="B256">
         <f t="shared" si="24"/>
         <v>250</v>
       </c>
@@ -8759,7 +8880,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E256" s="4">
+      <c r="E256" s="3">
         <f t="shared" si="26"/>
         <v>362.44488016946866</v>
       </c>
@@ -8773,7 +8894,7 @@
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B257" s="3">
+      <c r="B257">
         <f t="shared" si="24"/>
         <v>251</v>
       </c>
@@ -8785,7 +8906,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257" s="3">
         <f t="shared" si="26"/>
         <v>352.63176980594216</v>
       </c>
@@ -8799,7 +8920,7 @@
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B258" s="3">
+      <c r="B258">
         <f t="shared" si="24"/>
         <v>252</v>
       </c>
@@ -8811,7 +8932,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E258" s="3">
         <f t="shared" si="26"/>
         <v>342.75323870665881</v>
       </c>
@@ -8825,7 +8946,7 @@
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B259" s="3">
+      <c r="B259">
         <f t="shared" si="24"/>
         <v>253</v>
       </c>
@@ -8837,7 +8958,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E259" s="4">
+      <c r="E259" s="3">
         <f t="shared" si="26"/>
         <v>332.80885073338027</v>
       </c>
@@ -8851,7 +8972,7 @@
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B260" s="3">
+      <c r="B260">
         <f t="shared" si="24"/>
         <v>254</v>
       </c>
@@ -8863,7 +8984,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E260" s="4">
+      <c r="E260" s="3">
         <f t="shared" si="26"/>
         <v>322.79816684027986</v>
       </c>
@@ -8877,7 +8998,7 @@
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B261" s="3">
+      <c r="B261">
         <f t="shared" si="24"/>
         <v>255</v>
       </c>
@@ -8889,7 +9010,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E261" s="4">
+      <c r="E261" s="3">
         <f t="shared" si="26"/>
         <v>312.72074505455879</v>
       </c>
@@ -8903,7 +9024,7 @@
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B262" s="3">
+      <c r="B262">
         <f t="shared" si="24"/>
         <v>256</v>
       </c>
@@ -8915,7 +9036,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E262" s="4">
+      <c r="E262" s="3">
         <f t="shared" si="26"/>
         <v>302.57614045693288</v>
       </c>
@@ -8929,7 +9050,7 @@
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B263" s="3">
+      <c r="B263">
         <f t="shared" si="24"/>
         <v>257</v>
       </c>
@@ -8941,7 +9062,7 @@
         <f t="shared" si="25"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263" s="3">
         <f t="shared" si="26"/>
         <v>292.36390516198952</v>
       </c>
@@ -8955,7 +9076,7 @@
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B264" s="3">
+      <c r="B264">
         <f t="shared" ref="B264:B327" si="30">(B263+1)</f>
         <v>258</v>
       </c>
@@ -8967,7 +9088,7 @@
         <f t="shared" ref="D264:D327" si="31">$C$4</f>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E264" s="4">
+      <c r="E264" s="3">
         <f t="shared" ref="E264:E327" si="32">C264*(C$2/12)</f>
         <v>282.08358829841313</v>
       </c>
@@ -8981,7 +9102,7 @@
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B265" s="3">
+      <c r="B265">
         <f t="shared" si="30"/>
         <v>259</v>
       </c>
@@ -8993,7 +9114,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E265" s="4">
+      <c r="E265" s="3">
         <f t="shared" si="32"/>
         <v>271.73473598907964</v>
       </c>
@@ -9007,7 +9128,7 @@
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B266" s="3">
+      <c r="B266">
         <f t="shared" si="30"/>
         <v>260</v>
       </c>
@@ -9019,7 +9140,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E266" s="4">
+      <c r="E266" s="3">
         <f t="shared" si="32"/>
         <v>261.31689133101725</v>
       </c>
@@ -9033,7 +9154,7 @@
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B267" s="3">
+      <c r="B267">
         <f t="shared" si="30"/>
         <v>261</v>
       </c>
@@ -9045,7 +9166,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267" s="3">
         <f t="shared" si="32"/>
         <v>250.82959437523445</v>
       </c>
@@ -9059,7 +9180,7 @@
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B268" s="3">
+      <c r="B268">
         <f t="shared" si="30"/>
         <v>262</v>
       </c>
@@ -9071,7 +9192,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268" s="3">
         <f t="shared" si="32"/>
         <v>240.27238210641309</v>
       </c>
@@ -9085,7 +9206,7 @@
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B269" s="3">
+      <c r="B269">
         <f t="shared" si="30"/>
         <v>263</v>
       </c>
@@ -9097,7 +9218,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E269" s="4">
+      <c r="E269" s="3">
         <f t="shared" si="32"/>
         <v>229.64478842246623</v>
       </c>
@@ -9111,7 +9232,7 @@
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B270" s="3">
+      <c r="B270">
         <f t="shared" si="30"/>
         <v>264</v>
       </c>
@@ -9123,7 +9244,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E270" s="4">
+      <c r="E270" s="3">
         <f t="shared" si="32"/>
         <v>218.94634411395975</v>
       </c>
@@ -9137,7 +9258,7 @@
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B271" s="3">
+      <c r="B271">
         <f t="shared" si="30"/>
         <v>265</v>
       </c>
@@ -9149,7 +9270,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E271" s="4">
+      <c r="E271" s="3">
         <f t="shared" si="32"/>
         <v>208.17657684339653</v>
       </c>
@@ -9163,7 +9284,7 @@
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B272" s="3">
+      <c r="B272">
         <f t="shared" si="30"/>
         <v>266</v>
       </c>
@@ -9175,7 +9296,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E272" s="4">
+      <c r="E272" s="3">
         <f t="shared" si="32"/>
         <v>197.33501112436289</v>
       </c>
@@ -9189,7 +9310,7 @@
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B273" s="3">
+      <c r="B273">
         <f t="shared" si="30"/>
         <v>267</v>
       </c>
@@ -9201,7 +9322,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E273" s="4">
+      <c r="E273" s="3">
         <f t="shared" si="32"/>
         <v>186.4211683005357</v>
       </c>
@@ -9215,7 +9336,7 @@
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B274" s="3">
+      <c r="B274">
         <f t="shared" si="30"/>
         <v>268</v>
       </c>
@@ -9227,7 +9348,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E274" s="4">
+      <c r="E274" s="3">
         <f t="shared" si="32"/>
         <v>175.43456652454967</v>
       </c>
@@ -9241,7 +9362,7 @@
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B275" s="3">
+      <c r="B275">
         <f t="shared" si="30"/>
         <v>269</v>
       </c>
@@ -9253,7 +9374,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275" s="3">
         <f t="shared" si="32"/>
         <v>164.37472073672373</v>
       </c>
@@ -9267,7 +9388,7 @@
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B276" s="3">
+      <c r="B276">
         <f t="shared" si="30"/>
         <v>270</v>
       </c>
@@ -9279,7 +9400,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E276" s="4">
+      <c r="E276" s="3">
         <f t="shared" si="32"/>
         <v>153.24114264364565</v>
       </c>
@@ -9293,7 +9414,7 @@
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B277" s="3">
+      <c r="B277">
         <f t="shared" si="30"/>
         <v>271</v>
       </c>
@@ -9305,7 +9426,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E277" s="4">
+      <c r="E277" s="3">
         <f t="shared" si="32"/>
         <v>142.03334069661366</v>
       </c>
@@ -9319,7 +9440,7 @@
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B278" s="3">
+      <c r="B278">
         <f t="shared" si="30"/>
         <v>272</v>
       </c>
@@ -9331,7 +9452,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E278" s="4">
+      <c r="E278" s="3">
         <f t="shared" si="32"/>
         <v>130.75082006993483</v>
       </c>
@@ -9345,7 +9466,7 @@
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B279" s="3">
+      <c r="B279">
         <f t="shared" si="30"/>
         <v>273</v>
       </c>
@@ -9357,7 +9478,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E279" s="4">
+      <c r="E279" s="3">
         <f t="shared" si="32"/>
         <v>119.39308263907813</v>
       </c>
@@ -9371,7 +9492,7 @@
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B280" s="3">
+      <c r="B280">
         <f t="shared" si="30"/>
         <v>274</v>
       </c>
@@ -9383,7 +9504,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E280" s="4">
+      <c r="E280" s="3">
         <f t="shared" si="32"/>
         <v>107.95962695868239</v>
       </c>
@@ -9397,7 +9518,7 @@
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B281" s="3">
+      <c r="B281">
         <f t="shared" si="30"/>
         <v>275</v>
       </c>
@@ -9409,7 +9530,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E281" s="4">
+      <c r="E281" s="3">
         <f t="shared" si="32"/>
         <v>96.449948240417328</v>
       </c>
@@ -9423,7 +9544,7 @@
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B282" s="3">
+      <c r="B282">
         <f t="shared" si="30"/>
         <v>276</v>
       </c>
@@ -9435,7 +9556,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E282" s="4">
+      <c r="E282" s="3">
         <f t="shared" si="32"/>
         <v>84.863538330697168</v>
       </c>
@@ -9449,7 +9570,7 @@
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B283" s="3">
+      <c r="B283">
         <f t="shared" si="30"/>
         <v>277</v>
       </c>
@@ -9461,7 +9582,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E283" s="4">
+      <c r="E283" s="3">
         <f t="shared" si="32"/>
         <v>73.199885688245544</v>
       </c>
@@ -9475,7 +9596,7 @@
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B284" s="3">
+      <c r="B284">
         <f t="shared" si="30"/>
         <v>278</v>
       </c>
@@ -9487,7 +9608,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E284" s="4">
+      <c r="E284" s="3">
         <f t="shared" si="32"/>
         <v>61.458475361510914</v>
       </c>
@@ -9501,7 +9622,7 @@
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B285" s="3">
+      <c r="B285">
         <f t="shared" si="30"/>
         <v>279</v>
       </c>
@@ -9513,7 +9634,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285" s="3">
         <f t="shared" si="32"/>
         <v>49.638788965931383</v>
       </c>
@@ -9527,7 +9648,7 @@
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B286" s="3">
+      <c r="B286">
         <f t="shared" si="30"/>
         <v>280</v>
       </c>
@@ -9539,7 +9660,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E286" s="4">
+      <c r="E286" s="3">
         <f t="shared" si="32"/>
         <v>37.740304661047986</v>
       </c>
@@ -9553,7 +9674,7 @@
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B287" s="3">
+      <c r="B287">
         <f t="shared" si="30"/>
         <v>281</v>
       </c>
@@ -9565,7 +9686,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E287" s="4">
+      <c r="E287" s="3">
         <f t="shared" si="32"/>
         <v>25.762497127465366</v>
       </c>
@@ -9579,7 +9700,7 @@
       </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B288" s="3">
+      <c r="B288">
         <f t="shared" si="30"/>
         <v>282</v>
       </c>
@@ -9591,7 +9712,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E288" s="4">
+      <c r="E288" s="3">
         <f t="shared" si="32"/>
         <v>13.704837543658863</v>
       </c>
@@ -9605,7 +9726,7 @@
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B289" s="3">
+      <c r="B289">
         <f t="shared" si="30"/>
         <v>283</v>
       </c>
@@ -9617,7 +9738,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289" s="3">
         <f t="shared" si="32"/>
         <v>1.566793562626984</v>
       </c>
@@ -9631,7 +9752,7 @@
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B290" s="3">
+      <c r="B290">
         <f t="shared" si="30"/>
         <v>284</v>
       </c>
@@ -9643,7 +9764,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E290" s="4">
+      <c r="E290" s="3">
         <f t="shared" si="32"/>
         <v>-10.652170711611774</v>
       </c>
@@ -9657,7 +9778,7 @@
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B291" s="3">
+      <c r="B291">
         <f t="shared" si="30"/>
         <v>285</v>
       </c>
@@ -9669,7 +9790,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E291" s="4">
+      <c r="E291" s="3">
         <f t="shared" si="32"/>
         <v>-22.952594747678791</v>
       </c>
@@ -9683,7 +9804,7 @@
       </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B292" s="3">
+      <c r="B292">
         <f t="shared" si="30"/>
         <v>286</v>
       </c>
@@ -9695,7 +9816,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E292" s="4">
+      <c r="E292" s="3">
         <f t="shared" si="32"/>
         <v>-35.335021610652923</v>
       </c>
@@ -9709,7 +9830,7 @@
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B293" s="3">
+      <c r="B293">
         <f t="shared" si="30"/>
         <v>287</v>
       </c>
@@ -9721,7 +9842,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E293" s="4">
+      <c r="E293" s="3">
         <f t="shared" si="32"/>
         <v>-47.799997986046876</v>
       </c>
@@ -9735,7 +9856,7 @@
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B294" s="3">
+      <c r="B294">
         <f t="shared" si="30"/>
         <v>288</v>
       </c>
@@ -9747,7 +9868,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E294" s="4">
+      <c r="E294" s="3">
         <f t="shared" si="32"/>
         <v>-60.348074203943462</v>
       </c>
@@ -9761,7 +9882,7 @@
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B295" s="3">
+      <c r="B295">
         <f t="shared" si="30"/>
         <v>289</v>
       </c>
@@ -9773,7 +9894,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295" s="3">
         <f t="shared" si="32"/>
         <v>-72.979804263292692</v>
       </c>
@@ -9787,7 +9908,7 @@
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B296" s="3">
+      <c r="B296">
         <f t="shared" si="30"/>
         <v>290</v>
       </c>
@@ -9799,7 +9920,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E296" s="4">
+      <c r="E296" s="3">
         <f t="shared" si="32"/>
         <v>-85.695745856370905</v>
       </c>
@@ -9813,7 +9934,7 @@
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B297" s="3">
+      <c r="B297">
         <f t="shared" si="30"/>
         <v>291</v>
       </c>
@@ -9825,7 +9946,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E297" s="4">
+      <c r="E297" s="3">
         <f t="shared" si="32"/>
         <v>-98.49646039340297</v>
       </c>
@@ -9839,7 +9960,7 @@
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B298" s="3">
+      <c r="B298">
         <f t="shared" si="30"/>
         <v>292</v>
       </c>
@@ -9851,7 +9972,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298" s="3">
         <f t="shared" si="32"/>
         <v>-111.38251302734859</v>
       </c>
@@ -9865,7 +9986,7 @@
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B299" s="3">
+      <c r="B299">
         <f t="shared" si="30"/>
         <v>293</v>
       </c>
@@ -9877,7 +9998,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E299" s="4">
+      <c r="E299" s="3">
         <f t="shared" si="32"/>
         <v>-124.35447267885387</v>
       </c>
@@ -9891,7 +10012,7 @@
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B300" s="3">
+      <c r="B300">
         <f t="shared" si="30"/>
         <v>294</v>
       </c>
@@ -9903,7 +10024,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E300" s="4">
+      <c r="E300" s="3">
         <f t="shared" si="32"/>
         <v>-137.41291206136916</v>
       </c>
@@ -9917,7 +10038,7 @@
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B301" s="3">
+      <c r="B301">
         <f t="shared" si="30"/>
         <v>295</v>
       </c>
@@ -9929,7 +10050,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E301" s="4">
+      <c r="E301" s="3">
         <f t="shared" si="32"/>
         <v>-150.55840770643456</v>
       </c>
@@ -9943,7 +10064,7 @@
       </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B302" s="3">
+      <c r="B302">
         <f t="shared" si="30"/>
         <v>296</v>
       </c>
@@ -9955,7 +10076,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E302" s="4">
+      <c r="E302" s="3">
         <f t="shared" si="32"/>
         <v>-163.79153998913375</v>
       </c>
@@ -9969,7 +10090,7 @@
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B303" s="3">
+      <c r="B303">
         <f t="shared" si="30"/>
         <v>297</v>
       </c>
@@ -9981,7 +10102,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E303" s="4">
+      <c r="E303" s="3">
         <f t="shared" si="32"/>
         <v>-177.11289315371758</v>
       </c>
@@ -9995,7 +10116,7 @@
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B304" s="3">
+      <c r="B304">
         <f t="shared" si="30"/>
         <v>298</v>
       </c>
@@ -10007,7 +10128,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E304" s="4">
+      <c r="E304" s="3">
         <f t="shared" si="32"/>
         <v>-190.52305533939864</v>
       </c>
@@ -10021,7 +10142,7 @@
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B305" s="3">
+      <c r="B305">
         <f t="shared" si="30"/>
         <v>299</v>
       </c>
@@ -10033,7 +10154,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E305" s="4">
+      <c r="E305" s="3">
         <f t="shared" si="32"/>
         <v>-204.02261860631756</v>
       </c>
@@ -10047,7 +10168,7 @@
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B306" s="3">
+      <c r="B306">
         <f t="shared" si="30"/>
         <v>300</v>
       </c>
@@ -10059,7 +10180,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E306" s="4">
+      <c r="E306" s="3">
         <f t="shared" si="32"/>
         <v>-217.61217896168262</v>
       </c>
@@ -10073,7 +10194,7 @@
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B307" s="3">
+      <c r="B307">
         <f t="shared" si="30"/>
         <v>301</v>
       </c>
@@ -10085,7 +10206,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E307" s="4">
+      <c r="E307" s="3">
         <f t="shared" si="32"/>
         <v>-231.29233638608343</v>
       </c>
@@ -10099,7 +10220,7 @@
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B308" s="3">
+      <c r="B308">
         <f t="shared" si="30"/>
         <v>302</v>
       </c>
@@ -10111,7 +10232,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E308" s="4">
+      <c r="E308" s="3">
         <f t="shared" si="32"/>
         <v>-245.06369485998027</v>
       </c>
@@ -10125,7 +10246,7 @@
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B309" s="3">
+      <c r="B309">
         <f t="shared" si="30"/>
         <v>303</v>
       </c>
@@ -10137,7 +10258,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E309" s="4">
+      <c r="E309" s="3">
         <f t="shared" si="32"/>
         <v>-258.92686239036976</v>
       </c>
@@ -10151,7 +10272,7 @@
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B310" s="3">
+      <c r="B310">
         <f t="shared" si="30"/>
         <v>304</v>
       </c>
@@ -10163,7 +10284,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E310" s="4">
+      <c r="E310" s="3">
         <f t="shared" si="32"/>
         <v>-272.88245103762853</v>
       </c>
@@ -10177,7 +10298,7 @@
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B311" s="3">
+      <c r="B311">
         <f t="shared" si="30"/>
         <v>305</v>
       </c>
@@ -10189,7 +10310,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E311" s="4">
+      <c r="E311" s="3">
         <f t="shared" si="32"/>
         <v>-286.93107694253564</v>
       </c>
@@ -10203,7 +10324,7 @@
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B312" s="3">
+      <c r="B312">
         <f t="shared" si="30"/>
         <v>306</v>
       </c>
@@ -10215,7 +10336,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E312" s="4">
+      <c r="E312" s="3">
         <f t="shared" si="32"/>
         <v>-301.07336035347549</v>
       </c>
@@ -10229,7 +10350,7 @@
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B313" s="3">
+      <c r="B313">
         <f t="shared" si="30"/>
         <v>307</v>
       </c>
@@ -10241,7 +10362,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E313" s="4">
+      <c r="E313" s="3">
         <f t="shared" si="32"/>
         <v>-315.30992565382161</v>
       </c>
@@ -10255,7 +10376,7 @@
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B314" s="3">
+      <c r="B314">
         <f t="shared" si="30"/>
         <v>308</v>
       </c>
@@ -10267,7 +10388,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E314" s="4">
+      <c r="E314" s="3">
         <f t="shared" si="32"/>
         <v>-329.64140138950336</v>
       </c>
@@ -10281,7 +10402,7 @@
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B315" s="3">
+      <c r="B315">
         <f t="shared" si="30"/>
         <v>309</v>
       </c>
@@ -10293,7 +10414,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E315" s="4">
+      <c r="E315" s="3">
         <f t="shared" si="32"/>
         <v>-344.06842029675636</v>
       </c>
@@ -10307,7 +10428,7 @@
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B316" s="3">
+      <c r="B316">
         <f t="shared" si="30"/>
         <v>310</v>
       </c>
@@ -10319,7 +10440,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E316" s="4">
+      <c r="E316" s="3">
         <f t="shared" si="32"/>
         <v>-358.59161933005765</v>
       </c>
@@ -10333,7 +10454,7 @@
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B317" s="3">
+      <c r="B317">
         <f t="shared" si="30"/>
         <v>311</v>
       </c>
@@ -10345,7 +10466,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E317" s="4">
+      <c r="E317" s="3">
         <f t="shared" si="32"/>
         <v>-373.21163969024764</v>
       </c>
@@ -10359,7 +10480,7 @@
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B318" s="3">
+      <c r="B318">
         <f t="shared" si="30"/>
         <v>312</v>
       </c>
@@ -10371,7 +10492,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E318" s="4">
+      <c r="E318" s="3">
         <f t="shared" si="32"/>
         <v>-387.92912685283886</v>
       </c>
@@ -10385,7 +10506,7 @@
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B319" s="3">
+      <c r="B319">
         <f t="shared" si="30"/>
         <v>313</v>
       </c>
@@ -10397,7 +10518,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E319" s="4">
+      <c r="E319" s="3">
         <f t="shared" si="32"/>
         <v>-402.7447305965141</v>
       </c>
@@ -10411,7 +10532,7 @@
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B320" s="3">
+      <c r="B320">
         <f t="shared" si="30"/>
         <v>314</v>
       </c>
@@ -10423,7 +10544,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E320" s="4">
+      <c r="E320" s="3">
         <f t="shared" si="32"/>
         <v>-417.65910503181379</v>
       </c>
@@ -10437,7 +10558,7 @@
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B321" s="3">
+      <c r="B321">
         <f t="shared" si="30"/>
         <v>315</v>
       </c>
@@ -10449,7 +10570,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E321" s="4">
+      <c r="E321" s="3">
         <f t="shared" si="32"/>
         <v>-432.67290863001546</v>
       </c>
@@ -10463,7 +10584,7 @@
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B322" s="3">
+      <c r="B322">
         <f t="shared" si="30"/>
         <v>316</v>
       </c>
@@ -10475,7 +10596,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E322" s="4">
+      <c r="E322" s="3">
         <f t="shared" si="32"/>
         <v>-447.78680425220523</v>
       </c>
@@ -10489,7 +10610,7 @@
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B323" s="3">
+      <c r="B323">
         <f t="shared" si="30"/>
         <v>317</v>
       </c>
@@ -10501,7 +10622,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E323" s="4">
+      <c r="E323" s="3">
         <f t="shared" si="32"/>
         <v>-463.00145917854286</v>
       </c>
@@ -10515,7 +10636,7 @@
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B324" s="3">
+      <c r="B324">
         <f t="shared" si="30"/>
         <v>318</v>
       </c>
@@ -10527,7 +10648,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E324" s="4">
+      <c r="E324" s="3">
         <f t="shared" si="32"/>
         <v>-478.31754513772273</v>
       </c>
@@ -10541,7 +10662,7 @@
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B325" s="3">
+      <c r="B325">
         <f t="shared" si="30"/>
         <v>319</v>
       </c>
@@ -10553,7 +10674,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E325" s="4">
+      <c r="E325" s="3">
         <f t="shared" si="32"/>
         <v>-493.7357383366305</v>
       </c>
@@ -10567,7 +10688,7 @@
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B326" s="3">
+      <c r="B326">
         <f t="shared" si="30"/>
         <v>320</v>
       </c>
@@ -10579,7 +10700,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E326" s="4">
+      <c r="E326" s="3">
         <f t="shared" si="32"/>
         <v>-509.25671949019767</v>
       </c>
@@ -10593,7 +10714,7 @@
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B327" s="3">
+      <c r="B327">
         <f t="shared" si="30"/>
         <v>321</v>
       </c>
@@ -10605,7 +10726,7 @@
         <f t="shared" si="31"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E327" s="4">
+      <c r="E327" s="3">
         <f t="shared" si="32"/>
         <v>-524.88117385145517</v>
       </c>
@@ -10619,7 +10740,7 @@
       </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B328" s="3">
+      <c r="B328">
         <f t="shared" ref="B328:B366" si="36">(B327+1)</f>
         <v>322</v>
       </c>
@@ -10631,7 +10752,7 @@
         <f t="shared" ref="D328:D366" si="37">$C$4</f>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E328" s="4">
+      <c r="E328" s="3">
         <f t="shared" ref="E328:E366" si="38">C328*(C$2/12)</f>
         <v>-540.60979124178789</v>
       </c>
@@ -10645,7 +10766,7 @@
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B329" s="3">
+      <c r="B329">
         <f t="shared" si="36"/>
         <v>323</v>
       </c>
@@ -10657,7 +10778,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E329" s="4">
+      <c r="E329" s="3">
         <f t="shared" si="38"/>
         <v>-556.44326608138942</v>
       </c>
@@ -10671,7 +10792,7 @@
       </c>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B330" s="3">
+      <c r="B330">
         <f t="shared" si="36"/>
         <v>324</v>
       </c>
@@ -10683,7 +10804,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E330" s="4">
+      <c r="E330" s="3">
         <f t="shared" si="38"/>
         <v>-572.38229741992166</v>
       </c>
@@ -10697,7 +10818,7 @@
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B331" s="3">
+      <c r="B331">
         <f t="shared" si="36"/>
         <v>325</v>
       </c>
@@ -10709,7 +10830,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E331" s="4">
+      <c r="E331" s="3">
         <f t="shared" si="38"/>
         <v>-588.42758896737735</v>
       </c>
@@ -10723,7 +10844,7 @@
       </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B332" s="3">
+      <c r="B332">
         <f t="shared" si="36"/>
         <v>326</v>
       </c>
@@ -10735,7 +10856,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E332" s="4">
+      <c r="E332" s="3">
         <f t="shared" si="38"/>
         <v>-604.57984912514939</v>
       </c>
@@ -10749,7 +10870,7 @@
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B333" s="3">
+      <c r="B333">
         <f t="shared" si="36"/>
         <v>327</v>
       </c>
@@ -10761,7 +10882,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E333" s="4">
+      <c r="E333" s="3">
         <f t="shared" si="38"/>
         <v>-620.83979101730665</v>
       </c>
@@ -10775,7 +10896,7 @@
       </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B334" s="3">
+      <c r="B334">
         <f t="shared" si="36"/>
         <v>328</v>
       </c>
@@ -10787,7 +10908,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E334" s="4">
+      <c r="E334" s="3">
         <f t="shared" si="38"/>
         <v>-637.20813252207836</v>
       </c>
@@ -10801,7 +10922,7 @@
       </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B335" s="3">
+      <c r="B335">
         <f t="shared" si="36"/>
         <v>329</v>
       </c>
@@ -10813,7 +10934,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E335" s="4">
+      <c r="E335" s="3">
         <f t="shared" si="38"/>
         <v>-653.68559630354855</v>
       </c>
@@ -10827,7 +10948,7 @@
       </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B336" s="3">
+      <c r="B336">
         <f t="shared" si="36"/>
         <v>330</v>
       </c>
@@ -10839,7 +10960,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E336" s="4">
+      <c r="E336" s="3">
         <f t="shared" si="38"/>
         <v>-670.27290984356182</v>
       </c>
@@ -10853,7 +10974,7 @@
       </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B337" s="3">
+      <c r="B337">
         <f t="shared" si="36"/>
         <v>331</v>
       </c>
@@ -10865,7 +10986,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E337" s="4">
+      <c r="E337" s="3">
         <f t="shared" si="38"/>
         <v>-686.97080547384189</v>
       </c>
@@ -10879,7 +11000,7 @@
       </c>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B338" s="3">
+      <c r="B338">
         <f t="shared" si="36"/>
         <v>332</v>
       </c>
@@ -10891,7 +11012,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E338" s="4">
+      <c r="E338" s="3">
         <f t="shared" si="38"/>
         <v>-703.78002040832371</v>
       </c>
@@ -10905,7 +11026,7 @@
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B339" s="3">
+      <c r="B339">
         <f t="shared" si="36"/>
         <v>333</v>
       </c>
@@ -10917,7 +11038,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E339" s="4">
+      <c r="E339" s="3">
         <f t="shared" si="38"/>
         <v>-720.70129677570219</v>
       </c>
@@ -10931,7 +11052,7 @@
       </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B340" s="3">
+      <c r="B340">
         <f t="shared" si="36"/>
         <v>334</v>
       </c>
@@ -10943,7 +11064,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E340" s="4">
+      <c r="E340" s="3">
         <f t="shared" si="38"/>
         <v>-737.73538165219645</v>
       </c>
@@ -10957,7 +11078,7 @@
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B341" s="3">
+      <c r="B341">
         <f t="shared" si="36"/>
         <v>335</v>
       </c>
@@ -10969,7 +11090,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E341" s="4">
+      <c r="E341" s="3">
         <f t="shared" si="38"/>
         <v>-754.8830270945341</v>
       </c>
@@ -10983,7 +11104,7 @@
       </c>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B342" s="3">
+      <c r="B342">
         <f t="shared" si="36"/>
         <v>336</v>
       </c>
@@ -10995,7 +11116,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E342" s="4">
+      <c r="E342" s="3">
         <f t="shared" si="38"/>
         <v>-772.14499017315393</v>
       </c>
@@ -11009,7 +11130,7 @@
       </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B343" s="3">
+      <c r="B343">
         <f t="shared" si="36"/>
         <v>337</v>
       </c>
@@ -11021,7 +11142,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E343" s="4">
+      <c r="E343" s="3">
         <f t="shared" si="38"/>
         <v>-789.52203300563122</v>
       </c>
@@ -11035,7 +11156,7 @@
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B344" s="3">
+      <c r="B344">
         <f t="shared" si="36"/>
         <v>338</v>
       </c>
@@ -11047,7 +11168,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E344" s="4">
+      <c r="E344" s="3">
         <f t="shared" si="38"/>
         <v>-807.01492279032504</v>
       </c>
@@ -11061,7 +11182,7 @@
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B345" s="3">
+      <c r="B345">
         <f t="shared" si="36"/>
         <v>339</v>
       </c>
@@ -11073,7 +11194,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E345" s="4">
+      <c r="E345" s="3">
         <f t="shared" si="38"/>
         <v>-824.62443184025005</v>
       </c>
@@ -11087,7 +11208,7 @@
       </c>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B346" s="3">
+      <c r="B346">
         <f t="shared" si="36"/>
         <v>340</v>
       </c>
@@ -11099,7 +11220,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E346" s="4">
+      <c r="E346" s="3">
         <f t="shared" si="38"/>
         <v>-842.35133761717464</v>
       </c>
@@ -11113,7 +11234,7 @@
       </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B347" s="3">
+      <c r="B347">
         <f t="shared" si="36"/>
         <v>341</v>
       </c>
@@ -11125,7 +11246,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E347" s="4">
+      <c r="E347" s="3">
         <f t="shared" si="38"/>
         <v>-860.1964227659455</v>
       </c>
@@ -11139,7 +11260,7 @@
       </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B348" s="3">
+      <c r="B348">
         <f t="shared" si="36"/>
         <v>342</v>
       </c>
@@ -11151,7 +11272,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E348" s="4">
+      <c r="E348" s="3">
         <f t="shared" si="38"/>
         <v>-878.16047514904142</v>
       </c>
@@ -11165,7 +11286,7 @@
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B349" s="3">
+      <c r="B349">
         <f t="shared" si="36"/>
         <v>343</v>
       </c>
@@ -11177,7 +11298,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E349" s="4">
+      <c r="E349" s="3">
         <f t="shared" si="38"/>
         <v>-896.24428788135799</v>
       </c>
@@ -11191,7 +11312,7 @@
       </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B350" s="3">
+      <c r="B350">
         <f t="shared" si="36"/>
         <v>344</v>
       </c>
@@ -11203,7 +11324,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E350" s="4">
+      <c r="E350" s="3">
         <f t="shared" si="38"/>
         <v>-914.44865936522342</v>
       </c>
@@ -11217,7 +11338,7 @@
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B351" s="3">
+      <c r="B351">
         <f t="shared" si="36"/>
         <v>345</v>
       </c>
@@ -11229,7 +11350,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E351" s="4">
+      <c r="E351" s="3">
         <f t="shared" si="38"/>
         <v>-932.77439332564779</v>
       </c>
@@ -11243,7 +11364,7 @@
       </c>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B352" s="3">
+      <c r="B352">
         <f t="shared" si="36"/>
         <v>346</v>
       </c>
@@ -11255,7 +11376,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E352" s="4">
+      <c r="E352" s="3">
         <f t="shared" si="38"/>
         <v>-951.22229884580827</v>
       </c>
@@ -11269,7 +11390,7 @@
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B353" s="3">
+      <c r="B353">
         <f t="shared" si="36"/>
         <v>347</v>
       </c>
@@ -11281,7 +11402,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E353" s="4">
+      <c r="E353" s="3">
         <f t="shared" si="38"/>
         <v>-969.79319040276994</v>
       </c>
@@ -11295,7 +11416,7 @@
       </c>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B354" s="3">
+      <c r="B354">
         <f t="shared" si="36"/>
         <v>348</v>
       </c>
@@ -11307,7 +11428,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E354" s="4">
+      <c r="E354" s="3">
         <f t="shared" si="38"/>
         <v>-988.48788790344463</v>
       </c>
@@ -11321,7 +11442,7 @@
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B355" s="3">
+      <c r="B355">
         <f t="shared" si="36"/>
         <v>349</v>
       </c>
@@ -11333,7 +11454,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E355" s="4">
+      <c r="E355" s="3">
         <f t="shared" si="38"/>
         <v>-1007.3072167207905</v>
       </c>
@@ -11347,7 +11468,7 @@
       </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B356" s="3">
+      <c r="B356">
         <f t="shared" si="36"/>
         <v>350</v>
       </c>
@@ -11359,7 +11480,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E356" s="4">
+      <c r="E356" s="3">
         <f t="shared" si="38"/>
         <v>-1026.252007730252</v>
       </c>
@@ -11373,7 +11494,7 @@
       </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B357" s="3">
+      <c r="B357">
         <f t="shared" si="36"/>
         <v>351</v>
       </c>
@@ -11385,7 +11506,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E357" s="4">
+      <c r="E357" s="3">
         <f t="shared" si="38"/>
         <v>-1045.3230973464433</v>
       </c>
@@ -11399,7 +11520,7 @@
       </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B358" s="3">
+      <c r="B358">
         <f t="shared" si="36"/>
         <v>352</v>
       </c>
@@ -11411,7 +11532,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E358" s="4">
+      <c r="E358" s="3">
         <f t="shared" si="38"/>
         <v>-1064.5213275600759</v>
       </c>
@@ -11425,7 +11546,7 @@
       </c>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B359" s="3">
+      <c r="B359">
         <f t="shared" si="36"/>
         <v>353</v>
       </c>
@@ -11437,7 +11558,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E359" s="4">
+      <c r="E359" s="3">
         <f t="shared" si="38"/>
         <v>-1083.8475459751326</v>
       </c>
@@ -11451,7 +11572,7 @@
       </c>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B360" s="3">
+      <c r="B360">
         <f t="shared" si="36"/>
         <v>354</v>
       </c>
@@ -11463,7 +11584,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E360" s="4">
+      <c r="E360" s="3">
         <f t="shared" si="38"/>
         <v>-1103.3026058462897</v>
       </c>
@@ -11477,7 +11598,7 @@
       </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B361" s="3">
+      <c r="B361">
         <f t="shared" si="36"/>
         <v>355</v>
       </c>
@@ -11489,7 +11610,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E361" s="4">
+      <c r="E361" s="3">
         <f t="shared" si="38"/>
         <v>-1122.8873661165878</v>
       </c>
@@ -11503,7 +11624,7 @@
       </c>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B362" s="3">
+      <c r="B362">
         <f t="shared" si="36"/>
         <v>356</v>
       </c>
@@ -11515,7 +11636,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E362" s="4">
+      <c r="E362" s="3">
         <f t="shared" si="38"/>
         <v>-1142.6026914553549</v>
       </c>
@@ -11529,7 +11650,7 @@
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B363" s="3">
+      <c r="B363">
         <f t="shared" si="36"/>
         <v>357</v>
       </c>
@@ -11541,7 +11662,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E363" s="4">
+      <c r="E363" s="3">
         <f t="shared" si="38"/>
         <v>-1162.4494522963803</v>
       </c>
@@ -11555,7 +11676,7 @@
       </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B364" s="3">
+      <c r="B364">
         <f t="shared" si="36"/>
         <v>358</v>
       </c>
@@ -11567,7 +11688,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E364" s="4">
+      <c r="E364" s="3">
         <f t="shared" si="38"/>
         <v>-1182.4285248763456</v>
       </c>
@@ -11581,7 +11702,7 @@
       </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B365" s="3">
+      <c r="B365">
         <f t="shared" si="36"/>
         <v>359</v>
       </c>
@@ -11593,7 +11714,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E365" s="4">
+      <c r="E365" s="3">
         <f t="shared" si="38"/>
         <v>-1202.5407912735109</v>
       </c>
@@ -11607,7 +11728,7 @@
       </c>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B366" s="3">
+      <c r="B366">
         <f t="shared" si="36"/>
         <v>360</v>
       </c>
@@ -11619,7 +11740,7 @@
         <f t="shared" si="37"/>
         <v>1834.4114346984406</v>
       </c>
-      <c r="E366" s="4">
+      <c r="E366" s="3">
         <f t="shared" si="38"/>
         <v>-1222.787139446657</v>
       </c>
